--- a/files/BI Decision Matrix 2022.xlsx
+++ b/files/BI Decision Matrix 2022.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cronos.sharepoint.com/sites/Stage2022-BIDecisionMatrix/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SchoolThomasMoreGeel\Final Portfolio\Web\startbootstrap-agency-gh-pages\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1623" documentId="13_ncr:1_{64A5E17D-B3C2-45F7-9B7A-2EEB9E74FEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{76943AE0-CC8D-4466-8D3C-B77B0E447583}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FABBED-B799-4AF5-BD85-C49144B6B2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{42043CC2-EA9F-4C09-A981-5444BD1E93E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{42043CC2-EA9F-4C09-A981-5444BD1E93E3}"/>
   </bookViews>
   <sheets>
     <sheet name="BI Decision Matrix" sheetId="1" r:id="rId1"/>
     <sheet name="BI Decision " sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Pros&amp;Cons" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="374">
   <si>
     <t>BI Decision Matrix 2022</t>
   </si>
@@ -1329,15 +1329,6 @@
     <t>Cons</t>
   </si>
   <si>
-    <t>It is a complete tool, you can do everything</t>
-  </si>
-  <si>
-    <t>Because of the amount that you can do some features are hidden to inexperienced users</t>
-  </si>
-  <si>
-    <t>Interface comparable to other microsoft products</t>
-  </si>
-  <si>
     <t>You can connect with a lot of different data sources</t>
   </si>
   <si>
@@ -1359,9 +1350,6 @@
     <t>Power BI is mobile friendly</t>
   </si>
   <si>
-    <t>Good data modeling capabilities with power query editor</t>
-  </si>
-  <si>
     <t>Has both cloud and on prem capabilities(Cloud is not free)</t>
   </si>
   <si>
@@ -1380,15 +1368,9 @@
     <t xml:space="preserve">Tableau </t>
   </si>
   <si>
-    <t xml:space="preserve">Focussed on Visualisations, </t>
-  </si>
-  <si>
     <t>Making tabels and formatting tabels is very tedious. You will have to do a lot for basic formatting.</t>
   </si>
   <si>
-    <t>Tableau  has a high performance</t>
-  </si>
-  <si>
     <t>Tableau supports a lot of the more advanced functionalities (ex. graphs in tooltips)</t>
   </si>
   <si>
@@ -1413,21 +1395,9 @@
     <t>Tableau isn't a dashboarding tool more of a visualisation tool this means that it can make really nice individual visualisations but compared to PowerBI and or Qlik sense the dashboarding capabilities are limited</t>
   </si>
   <si>
-    <t>Google data studio is free</t>
-  </si>
-  <si>
     <t>Inconsistent placement of functions (ex color function is always in the style tab sometimes in a slightly different place as before)</t>
   </si>
   <si>
-    <t>Google data studio is easy to pick up and has a smooth learning curve</t>
-  </si>
-  <si>
-    <t>Google data studio has the basics you can make good looking dashboards</t>
-  </si>
-  <si>
-    <t>Limited on some functionalities(example customizable tooltips)</t>
-  </si>
-  <si>
     <t>limited data modeling capabilities (Only being able to join tables)</t>
   </si>
   <si>
@@ -1438,9 +1408,6 @@
   </si>
   <si>
     <t>Everything is on the cloud so you can connect anywhere with internet acces</t>
-  </si>
-  <si>
-    <t>You can make use of drill down functions,</t>
   </si>
   <si>
     <t xml:space="preserve">There are a lot of google products with charting capabilities if you find documentation make sure you are using documentation meant for google data studio and not google chart, google analythics, etc. </t>
@@ -1528,7 +1495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2326,7 +2293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2648,10 +2615,6 @@
     <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2667,10 +2630,12 @@
     <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2680,9 +2645,66 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -2704,97 +2726,24 @@
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3121,11 +3070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FD895A-178C-4DE5-AB7E-388CDFD78207}">
   <dimension ref="B2:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="82.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -3139,17 +3088,17 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="27">
+    <row r="2" spans="2:8" ht="27.75" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3170,7 +3119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="28"/>
@@ -3179,7 +3128,7 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="2:8" ht="24.6">
+    <row r="6" spans="2:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
@@ -3200,7 +3149,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="100" t="s">
         <v>9</v>
       </c>
@@ -3211,7 +3160,7 @@
       <c r="G7" s="103"/>
       <c r="H7" s="103"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="100"/>
       <c r="C8" s="101"/>
       <c r="D8" s="103"/>
@@ -3220,7 +3169,7 @@
       <c r="G8" s="103"/>
       <c r="H8" s="103"/>
     </row>
-    <row r="9" spans="2:8" ht="198">
+    <row r="9" spans="2:8" ht="207" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
@@ -3241,7 +3190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="144">
+    <row r="10" spans="2:8" ht="155.25" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
@@ -3262,7 +3211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="198">
+    <row r="11" spans="2:8" ht="207" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
@@ -3283,7 +3232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="198">
+    <row r="12" spans="2:8" ht="189.75" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
       <c r="C12" s="33"/>
       <c r="D12" s="19" t="s">
@@ -3294,7 +3243,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="2:8" ht="24.6">
+    <row r="13" spans="2:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
@@ -3315,7 +3264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="104" t="s">
         <v>30</v>
       </c>
@@ -3326,7 +3275,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="104" t="s">
         <v>31</v>
       </c>
@@ -3337,7 +3286,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="104"/>
       <c r="C16" s="33"/>
       <c r="D16" s="28"/>
@@ -3346,7 +3295,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="2:10" ht="162">
+    <row r="17" spans="2:10" ht="172.5" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -3368,7 +3317,7 @@
       </c>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="2:10" ht="210.75" customHeight="1">
+    <row r="18" spans="2:10" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>38</v>
       </c>
@@ -3392,7 +3341,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="126">
+    <row r="19" spans="2:10" ht="138" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>45</v>
       </c>
@@ -3416,7 +3365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="198">
+    <row r="20" spans="2:10" ht="207" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>52</v>
       </c>
@@ -3437,7 +3386,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="54">
+    <row r="21" spans="2:10" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>58</v>
       </c>
@@ -3458,7 +3407,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="108">
+    <row r="22" spans="2:10" ht="103.5" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>64</v>
       </c>
@@ -3479,7 +3428,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="126">
+    <row r="23" spans="2:10" ht="120.75" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3500,7 +3449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="33"/>
       <c r="D24" s="3"/>
@@ -3509,7 +3458,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:10" ht="24.6">
+    <row r="25" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>76</v>
       </c>
@@ -3530,7 +3479,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>77</v>
       </c>
@@ -3541,7 +3490,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>78</v>
       </c>
@@ -3552,7 +3501,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="33"/>
       <c r="D28" s="3"/>
@@ -3561,7 +3510,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:10" ht="72">
+    <row r="29" spans="2:10" ht="69" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>79</v>
       </c>
@@ -3582,7 +3531,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="270">
+    <row r="30" spans="2:10" ht="258.75" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
         <v>85</v>
       </c>
@@ -3603,7 +3552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="155.25" customHeight="1">
+    <row r="31" spans="2:10" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>91</v>
       </c>
@@ -3624,7 +3573,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="234">
+    <row r="32" spans="2:10" ht="224.25" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>97</v>
       </c>
@@ -3645,7 +3594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="144">
+    <row r="33" spans="2:9" ht="155.25" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>103</v>
       </c>
@@ -3666,7 +3615,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="69.75" customHeight="1">
+    <row r="34" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>109</v>
       </c>
@@ -3687,7 +3636,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="72">
+    <row r="35" spans="2:9" ht="86.25" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="33"/>
       <c r="D35" s="3"/>
@@ -3698,7 +3647,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="2:9" ht="24.6">
+    <row r="36" spans="2:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>116</v>
       </c>
@@ -3709,7 +3658,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>117</v>
       </c>
@@ -3720,7 +3669,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>118</v>
       </c>
@@ -3731,7 +3680,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="33"/>
       <c r="D39" s="3"/>
@@ -3740,7 +3689,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:9" ht="108">
+    <row r="40" spans="2:9" ht="103.5" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>119</v>
       </c>
@@ -3764,7 +3713,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="108">
+    <row r="41" spans="2:9" ht="120.75" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>126</v>
       </c>
@@ -3785,7 +3734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="180">
+    <row r="42" spans="2:9" ht="172.5" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>132</v>
       </c>
@@ -3806,7 +3755,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="180">
+    <row r="43" spans="2:9" ht="172.5" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>138</v>
       </c>
@@ -3827,7 +3776,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="54">
+    <row r="44" spans="2:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="33"/>
       <c r="D44" s="3"/>
@@ -3840,7 +3789,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="2:9" ht="24.6">
+    <row r="45" spans="2:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>146</v>
       </c>
@@ -3851,7 +3800,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>147</v>
       </c>
@@ -3862,7 +3811,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>148</v>
       </c>
@@ -3873,7 +3822,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
       <c r="C48" s="33"/>
       <c r="D48" s="3"/>
@@ -3882,7 +3831,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" ht="270">
+    <row r="49" spans="2:8" ht="276" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>149</v>
       </c>
@@ -3903,7 +3852,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="90">
+    <row r="50" spans="2:8" ht="103.5" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>155</v>
       </c>
@@ -3924,7 +3873,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="115.15">
+    <row r="51" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>161</v>
       </c>
@@ -3945,7 +3894,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="180">
+    <row r="52" spans="2:8" ht="172.5" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>167</v>
       </c>
@@ -3966,39 +3915,39 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="155.25" customHeight="1">
+    <row r="53" spans="2:8" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C53" s="33"/>
-      <c r="D53" s="119" t="s">
+      <c r="D53" s="117" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="119" t="s">
+      <c r="E53" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="F53" s="119" t="s">
+      <c r="F53" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="G53" s="119" t="s">
+      <c r="G53" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="H53" s="119" t="s">
+      <c r="H53" s="117" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>179</v>
       </c>
       <c r="C54" s="33"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-    </row>
-    <row r="55" spans="2:8" ht="162">
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+    </row>
+    <row r="55" spans="2:8" ht="172.5" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="33"/>
       <c r="D55" s="3"/>
@@ -4009,7 +3958,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="2:8" ht="24.6">
+    <row r="56" spans="2:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>181</v>
       </c>
@@ -4020,7 +3969,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>182</v>
       </c>
@@ -4031,7 +3980,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>183</v>
       </c>
@@ -4042,7 +3991,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
       <c r="C59" s="33"/>
       <c r="D59" s="3"/>
@@ -4051,7 +4000,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="2:8" ht="144">
+    <row r="60" spans="2:8" ht="155.25" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>184</v>
       </c>
@@ -4072,7 +4021,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="100.5">
+    <row r="61" spans="2:8" ht="138" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>190</v>
       </c>
@@ -4093,7 +4042,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="126">
+    <row r="62" spans="2:8" ht="138" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>196</v>
       </c>
@@ -4114,7 +4063,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="126">
+    <row r="63" spans="2:8" ht="138" x14ac:dyDescent="0.25">
       <c r="B63" s="25" t="s">
         <v>202</v>
       </c>
@@ -4135,7 +4084,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="108">
+    <row r="64" spans="2:8" ht="120.75" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
         <v>203</v>
       </c>
@@ -4156,7 +4105,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="36">
+    <row r="65" spans="2:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="33"/>
       <c r="D65" s="3"/>
@@ -4166,7 +4115,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="2:8" ht="24.6">
+    <row r="66" spans="2:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>210</v>
       </c>
@@ -4177,7 +4126,7 @@
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>211</v>
       </c>
@@ -4188,7 +4137,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>212</v>
       </c>
@@ -4199,7 +4148,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
       <c r="C69" s="33"/>
       <c r="D69" s="3"/>
@@ -4208,7 +4157,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="2:8" ht="216">
+    <row r="70" spans="2:8" ht="224.25" x14ac:dyDescent="0.25">
       <c r="B70" s="20" t="s">
         <v>213</v>
       </c>
@@ -4229,7 +4178,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="144">
+    <row r="71" spans="2:8" ht="155.25" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>219</v>
       </c>
@@ -4250,7 +4199,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="126">
+    <row r="72" spans="2:8" ht="120.75" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>225</v>
       </c>
@@ -4271,7 +4220,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="108">
+    <row r="73" spans="2:8" ht="120.75" x14ac:dyDescent="0.25">
       <c r="B73" s="25" t="s">
         <v>231</v>
       </c>
@@ -4288,7 +4237,7 @@
       <c r="G73" s="24"/>
       <c r="H73" s="24"/>
     </row>
-    <row r="74" spans="2:8" ht="72">
+    <row r="74" spans="2:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="B74" s="96" t="s">
         <v>232</v>
       </c>
@@ -4309,7 +4258,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="143.25" customHeight="1">
+    <row r="75" spans="2:8" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>238</v>
       </c>
@@ -4330,7 +4279,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="162">
+    <row r="76" spans="2:8" ht="172.5" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
       <c r="C76" s="33"/>
       <c r="D76" s="3"/>
@@ -4341,7 +4290,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="2:8" ht="24.6">
+    <row r="77" spans="2:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>245</v>
       </c>
@@ -4352,7 +4301,7 @@
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>246</v>
       </c>
@@ -4362,7 +4311,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="2:8" ht="252">
+    <row r="79" spans="2:8" ht="241.5" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="C79" s="33"/>
       <c r="D79" s="14" t="s">
@@ -4381,7 +4330,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="216">
+    <row r="80" spans="2:8" ht="241.5" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>252</v>
       </c>
@@ -4398,7 +4347,7 @@
       </c>
       <c r="H80" s="21"/>
     </row>
-    <row r="81" spans="2:8" ht="409.6">
+    <row r="81" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>256</v>
       </c>
@@ -4413,7 +4362,7 @@
       </c>
       <c r="H81" s="21"/>
     </row>
-    <row r="82" spans="2:8" ht="144">
+    <row r="82" spans="2:8" ht="138" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="73"/>
       <c r="D82" s="31" t="s">
@@ -4424,17 +4373,17 @@
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
     </row>
-    <row r="83" spans="2:8" ht="66.75" customHeight="1">
+    <row r="83" spans="2:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="35"/>
-      <c r="D83" s="118" t="s">
+      <c r="D83" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="E83" s="118"/>
-      <c r="F83" s="118"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="116"/>
       <c r="G83" s="32"/>
       <c r="H83" s="30"/>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D87" s="29"/>
     </row>
   </sheetData>
@@ -4465,11 +4414,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD76B914-A9F0-4EDE-A31C-9C785779FA3D}">
   <dimension ref="A1:AO158"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:G119"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="3" hidden="1" customWidth="1"/>
@@ -4479,7 +4428,7 @@
     <col min="8" max="8" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="19.5">
+    <row r="1" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>2</v>
       </c>
@@ -4534,7 +4483,7 @@
       <c r="AN1" s="76"/>
       <c r="AO1" s="76"/>
     </row>
-    <row r="2" spans="1:41" ht="19.149999999999999" customHeight="1">
+    <row r="2" spans="1:41" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
         <v>261</v>
       </c>
@@ -4589,7 +4538,7 @@
       <c r="AN2" s="76"/>
       <c r="AO2" s="76"/>
     </row>
-    <row r="3" spans="1:41" ht="19.149999999999999" customHeight="1">
+    <row r="3" spans="1:41" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>264</v>
       </c>
@@ -4644,7 +4593,7 @@
       <c r="AN3" s="76"/>
       <c r="AO3" s="76"/>
     </row>
-    <row r="4" spans="1:41" ht="19.149999999999999">
+    <row r="4" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>268</v>
       </c>
@@ -4699,7 +4648,7 @@
       <c r="AN4" s="76"/>
       <c r="AO4" s="76"/>
     </row>
-    <row r="5" spans="1:41" ht="19.149999999999999">
+    <row r="5" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>270</v>
       </c>
@@ -4754,7 +4703,7 @@
       <c r="AN5" s="76"/>
       <c r="AO5" s="76"/>
     </row>
-    <row r="6" spans="1:41" ht="19.149999999999999">
+    <row r="6" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
         <v>271</v>
       </c>
@@ -4809,7 +4758,7 @@
       <c r="AN6" s="76"/>
       <c r="AO6" s="76"/>
     </row>
-    <row r="7" spans="1:41" ht="19.149999999999999">
+    <row r="7" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="68" t="s">
         <v>273</v>
       </c>
@@ -4864,7 +4813,7 @@
       <c r="AN7" s="76"/>
       <c r="AO7" s="76"/>
     </row>
-    <row r="8" spans="1:41" ht="19.149999999999999">
+    <row r="8" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>275</v>
       </c>
@@ -4919,7 +4868,7 @@
       <c r="AN8" s="76"/>
       <c r="AO8" s="76"/>
     </row>
-    <row r="9" spans="1:41" ht="19.149999999999999">
+    <row r="9" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="68" t="s">
         <v>276</v>
       </c>
@@ -4974,7 +4923,7 @@
       <c r="AN9" s="76"/>
       <c r="AO9" s="76"/>
     </row>
-    <row r="10" spans="1:41" ht="19.5">
+    <row r="10" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
         <v>278</v>
       </c>
@@ -5029,7 +4978,7 @@
       <c r="AN10" s="76"/>
       <c r="AO10" s="76"/>
     </row>
-    <row r="11" spans="1:41" ht="19.149999999999999">
+    <row r="11" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
         <v>284</v>
       </c>
@@ -5084,7 +5033,7 @@
       <c r="AN11" s="76"/>
       <c r="AO11" s="76"/>
     </row>
-    <row r="12" spans="1:41" ht="19.149999999999999">
+    <row r="12" spans="1:41" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A12" s="66" t="s">
         <v>285</v>
       </c>
@@ -5139,7 +5088,7 @@
       <c r="AN12" s="76"/>
       <c r="AO12" s="76"/>
     </row>
-    <row r="13" spans="1:41" ht="19.149999999999999">
+    <row r="13" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A13" s="68" t="s">
         <v>287</v>
       </c>
@@ -5194,7 +5143,7 @@
       <c r="AN13" s="76"/>
       <c r="AO13" s="76"/>
     </row>
-    <row r="14" spans="1:41" ht="19.149999999999999">
+    <row r="14" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
         <v>288</v>
       </c>
@@ -5249,7 +5198,7 @@
       <c r="AN14" s="76"/>
       <c r="AO14" s="76"/>
     </row>
-    <row r="15" spans="1:41" ht="19.149999999999999">
+    <row r="15" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="68" t="s">
         <v>289</v>
       </c>
@@ -5306,7 +5255,7 @@
       <c r="AN15" s="76"/>
       <c r="AO15" s="76"/>
     </row>
-    <row r="16" spans="1:41" ht="20.25" customHeight="1">
+    <row r="16" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>290</v>
       </c>
@@ -5363,7 +5312,7 @@
       <c r="AN16" s="76"/>
       <c r="AO16" s="76"/>
     </row>
-    <row r="17" spans="1:41" ht="19.149999999999999">
+    <row r="17" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="68" t="s">
         <v>292</v>
       </c>
@@ -5418,7 +5367,7 @@
       <c r="AN17" s="76"/>
       <c r="AO17" s="76"/>
     </row>
-    <row r="18" spans="1:41" ht="19.149999999999999">
+    <row r="18" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="66" t="s">
         <v>293</v>
       </c>
@@ -5473,7 +5422,7 @@
       <c r="AN18" s="76"/>
       <c r="AO18" s="76"/>
     </row>
-    <row r="19" spans="1:41" ht="19.149999999999999">
+    <row r="19" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="68" t="s">
         <v>294</v>
       </c>
@@ -5528,7 +5477,7 @@
       <c r="AN19" s="76"/>
       <c r="AO19" s="76"/>
     </row>
-    <row r="20" spans="1:41" ht="19.5">
+    <row r="20" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="66" t="s">
         <v>298</v>
       </c>
@@ -5583,7 +5532,7 @@
       <c r="AN20" s="76"/>
       <c r="AO20" s="76"/>
     </row>
-    <row r="21" spans="1:41" ht="19.149999999999999">
+    <row r="21" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
         <v>303</v>
       </c>
@@ -5638,7 +5587,7 @@
       <c r="AN21" s="76"/>
       <c r="AO21" s="76"/>
     </row>
-    <row r="22" spans="1:41" ht="19.149999999999999">
+    <row r="22" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>309</v>
       </c>
@@ -5693,7 +5642,7 @@
       <c r="AN22" s="76"/>
       <c r="AO22" s="76"/>
     </row>
-    <row r="23" spans="1:41" ht="19.149999999999999">
+    <row r="23" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="71" t="s">
         <v>310</v>
       </c>
@@ -5748,7 +5697,7 @@
       <c r="AN23" s="76"/>
       <c r="AO23" s="76"/>
     </row>
-    <row r="24" spans="1:41" ht="18">
+    <row r="24" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="76"/>
       <c r="B24" s="76"/>
       <c r="C24" s="77"/>
@@ -5791,7 +5740,7 @@
       <c r="AN24" s="76"/>
       <c r="AO24" s="76"/>
     </row>
-    <row r="25" spans="1:41" ht="21.75">
+    <row r="25" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
         <v>2</v>
       </c>
@@ -5811,7 +5760,7 @@
       <c r="G25" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="116"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="76"/>
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
@@ -5846,7 +5795,7 @@
       <c r="AN25" s="76"/>
       <c r="AO25" s="76"/>
     </row>
-    <row r="26" spans="1:41" ht="21.6">
+    <row r="26" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
         <v>8</v>
       </c>
@@ -5866,7 +5815,7 @@
       <c r="G26" s="88">
         <v>3.5</v>
       </c>
-      <c r="H26" s="116"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="76"/>
       <c r="J26" s="76"/>
       <c r="K26" s="76"/>
@@ -5901,7 +5850,7 @@
       <c r="AN26" s="76"/>
       <c r="AO26" s="76"/>
     </row>
-    <row r="27" spans="1:41" ht="21.75">
+    <row r="27" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A27" s="89" t="s">
         <v>29</v>
       </c>
@@ -5921,7 +5870,7 @@
       <c r="G27" s="88">
         <v>3.5</v>
       </c>
-      <c r="H27" s="116"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="76"/>
       <c r="J27" s="76"/>
       <c r="K27" s="76"/>
@@ -5956,7 +5905,7 @@
       <c r="AN27" s="76"/>
       <c r="AO27" s="76"/>
     </row>
-    <row r="28" spans="1:41" ht="21.6">
+    <row r="28" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A28" s="87" t="s">
         <v>76</v>
       </c>
@@ -5976,7 +5925,7 @@
       <c r="G28" s="88">
         <v>3.5</v>
       </c>
-      <c r="H28" s="116"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="76"/>
       <c r="J28" s="76"/>
       <c r="K28" s="76"/>
@@ -6011,7 +5960,7 @@
       <c r="AN28" s="76"/>
       <c r="AO28" s="76"/>
     </row>
-    <row r="29" spans="1:41" ht="21.6">
+    <row r="29" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
         <v>116</v>
       </c>
@@ -6031,7 +5980,7 @@
       <c r="G29" s="90">
         <v>3</v>
       </c>
-      <c r="H29" s="116"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="76"/>
       <c r="J29" s="76"/>
       <c r="K29" s="76"/>
@@ -6066,7 +6015,7 @@
       <c r="AN29" s="76"/>
       <c r="AO29" s="76"/>
     </row>
-    <row r="30" spans="1:41" ht="21.6">
+    <row r="30" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
         <v>146</v>
       </c>
@@ -6086,7 +6035,7 @@
       <c r="G30" s="90">
         <v>3</v>
       </c>
-      <c r="H30" s="116"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="76"/>
       <c r="J30" s="76"/>
       <c r="K30" s="76"/>
@@ -6121,7 +6070,7 @@
       <c r="AN30" s="76"/>
       <c r="AO30" s="76"/>
     </row>
-    <row r="31" spans="1:41" ht="21.6">
+    <row r="31" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
         <v>181</v>
       </c>
@@ -6141,7 +6090,7 @@
       <c r="G31" s="90">
         <v>3</v>
       </c>
-      <c r="H31" s="117"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="76"/>
       <c r="J31" s="76"/>
       <c r="K31" s="76"/>
@@ -6176,7 +6125,7 @@
       <c r="AN31" s="76"/>
       <c r="AO31" s="76"/>
     </row>
-    <row r="32" spans="1:41" ht="21.6">
+    <row r="32" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A32" s="87" t="s">
         <v>210</v>
       </c>
@@ -6196,7 +6145,7 @@
       <c r="G32" s="90">
         <v>3</v>
       </c>
-      <c r="H32" s="117"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="76"/>
       <c r="J32" s="76"/>
       <c r="K32" s="76"/>
@@ -6231,7 +6180,7 @@
       <c r="AN32" s="76"/>
       <c r="AO32" s="76"/>
     </row>
-    <row r="33" spans="1:41" ht="21.75">
+    <row r="33" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A33" s="91" t="s">
         <v>245</v>
       </c>
@@ -6251,7 +6200,7 @@
       <c r="G33" s="92">
         <v>5</v>
       </c>
-      <c r="H33" s="117" t="s">
+      <c r="H33" s="76" t="s">
         <v>314</v>
       </c>
       <c r="I33" s="76"/>
@@ -6288,32 +6237,32 @@
       <c r="AN33" s="76"/>
       <c r="AO33" s="76"/>
     </row>
-    <row r="34" spans="1:41" ht="21.6">
-      <c r="A34" s="122" t="s">
+    <row r="34" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="139" t="s">
         <v>315</v>
       </c>
       <c r="B34" s="93"/>
-      <c r="C34" s="126">
+      <c r="C34" s="143">
         <f>SUM(C26,C27,C28,C29,C30,C31,C32,C33)</f>
         <v>35.5</v>
       </c>
-      <c r="D34" s="126">
+      <c r="D34" s="143">
         <f>SUM(D26,D27,D28,D29,D30,D31,D32,D33)</f>
         <v>34.5</v>
       </c>
-      <c r="E34" s="126">
+      <c r="E34" s="143">
         <f>SUM(E26,E27,E28,E29,E30,E31,E32,E33)</f>
         <v>31</v>
       </c>
-      <c r="F34" s="126">
+      <c r="F34" s="143">
         <f>SUM(F26,F27,F28,F29,F30,F31,F32,F33)</f>
         <v>29.5</v>
       </c>
-      <c r="G34" s="124">
+      <c r="G34" s="141">
         <f>SUM(G26,G27,G28,G29,G30,G31,G32,G33)</f>
         <v>27.5</v>
       </c>
-      <c r="H34" s="117"/>
+      <c r="H34" s="76"/>
       <c r="I34" s="76"/>
       <c r="J34" s="76"/>
       <c r="K34" s="76"/>
@@ -6348,15 +6297,15 @@
       <c r="AN34" s="76"/>
       <c r="AO34" s="76"/>
     </row>
-    <row r="35" spans="1:41" ht="21.6">
-      <c r="A35" s="123"/>
+    <row r="35" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="140"/>
       <c r="B35" s="94"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="116"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="76"/>
       <c r="I35" s="76"/>
       <c r="J35" s="76"/>
       <c r="K35" s="76"/>
@@ -6391,17 +6340,17 @@
       <c r="AN35" s="76"/>
       <c r="AO35" s="76"/>
     </row>
-    <row r="36" spans="1:41" ht="18">
-      <c r="A36" s="116"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116" t="s">
+    <row r="36" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76" t="s">
         <v>316</v>
       </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
       <c r="I36" s="76"/>
       <c r="J36" s="76"/>
       <c r="K36" s="76"/>
@@ -6436,15 +6385,15 @@
       <c r="AN36" s="76"/>
       <c r="AO36" s="76"/>
     </row>
-    <row r="37" spans="1:41" ht="17.25">
-      <c r="A37" s="116"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
+    <row r="37" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
       <c r="I37" s="76"/>
       <c r="J37" s="76"/>
       <c r="K37" s="76"/>
@@ -6479,20 +6428,14 @@
       <c r="AN37" s="76"/>
       <c r="AO37" s="76"/>
     </row>
-    <row r="38" spans="1:41" ht="18" customHeight="1">
-      <c r="A38" s="121" t="s">
-        <v>317</v>
-      </c>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="128" t="s">
-        <v>318</v>
-      </c>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128" t="s">
-        <v>319</v>
-      </c>
-      <c r="G38" s="128"/>
+    <row r="38" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="76"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
       <c r="J38" s="76"/>
@@ -6528,14 +6471,14 @@
       <c r="AN38" s="76"/>
       <c r="AO38" s="76"/>
     </row>
-    <row r="39" spans="1:41" ht="18" customHeight="1">
-      <c r="A39" s="121"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
+    <row r="39" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
       <c r="H39" s="76"/>
       <c r="I39" s="76"/>
       <c r="J39" s="76"/>
@@ -6571,18 +6514,14 @@
       <c r="AN39" s="76"/>
       <c r="AO39" s="76"/>
     </row>
-    <row r="40" spans="1:41" ht="16.899999999999999" customHeight="1">
-      <c r="A40" s="121"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="129" t="s">
-        <v>320</v>
-      </c>
-      <c r="E40" s="129"/>
-      <c r="F40" s="132" t="s">
-        <v>321</v>
-      </c>
-      <c r="G40" s="132"/>
+    <row r="40" spans="1:41" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
       <c r="H40" s="76"/>
       <c r="I40" s="76"/>
       <c r="J40" s="76"/>
@@ -6618,16 +6557,14 @@
       <c r="AN40" s="76"/>
       <c r="AO40" s="76"/>
     </row>
-    <row r="41" spans="1:41" ht="18" customHeight="1">
-      <c r="A41" s="121"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="130" t="s">
-        <v>322</v>
-      </c>
-      <c r="E41" s="130"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
+    <row r="41" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="76"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
       <c r="H41" s="76"/>
       <c r="I41" s="76"/>
       <c r="J41" s="76"/>
@@ -6663,18 +6600,14 @@
       <c r="AN41" s="76"/>
       <c r="AO41" s="76"/>
     </row>
-    <row r="42" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A42" s="121"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="130" t="s">
-        <v>323</v>
-      </c>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130" t="s">
-        <v>324</v>
-      </c>
-      <c r="G42" s="130"/>
+    <row r="42" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
       <c r="H42" s="76"/>
       <c r="I42" s="76"/>
       <c r="J42" s="76"/>
@@ -6710,18 +6643,14 @@
       <c r="AN42" s="76"/>
       <c r="AO42" s="76"/>
     </row>
-    <row r="43" spans="1:41" ht="18" customHeight="1">
-      <c r="A43" s="121"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="130" t="s">
-        <v>325</v>
-      </c>
-      <c r="E43" s="130"/>
-      <c r="F43" s="132" t="s">
-        <v>326</v>
-      </c>
-      <c r="G43" s="132"/>
+    <row r="43" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
       <c r="H43" s="76"/>
       <c r="I43" s="76"/>
       <c r="J43" s="76"/>
@@ -6757,16 +6686,14 @@
       <c r="AN43" s="76"/>
       <c r="AO43" s="76"/>
     </row>
-    <row r="44" spans="1:41" ht="18" customHeight="1">
-      <c r="A44" s="121"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="130" t="s">
-        <v>327</v>
-      </c>
-      <c r="E44" s="130"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
+    <row r="44" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
       <c r="H44" s="76"/>
       <c r="I44" s="76"/>
       <c r="J44" s="76"/>
@@ -6802,16 +6729,14 @@
       <c r="AN44" s="76"/>
       <c r="AO44" s="76"/>
     </row>
-    <row r="45" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A45" s="121"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="130" t="s">
-        <v>328</v>
-      </c>
-      <c r="E45" s="130"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
+    <row r="45" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
       <c r="H45" s="76"/>
       <c r="I45" s="76"/>
       <c r="J45" s="76"/>
@@ -6847,16 +6772,14 @@
       <c r="AN45" s="76"/>
       <c r="AO45" s="76"/>
     </row>
-    <row r="46" spans="1:41" ht="18" customHeight="1">
-      <c r="A46" s="121"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="130" t="s">
-        <v>329</v>
-      </c>
-      <c r="E46" s="130"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="131"/>
+    <row r="46" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="76"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
       <c r="H46" s="76"/>
       <c r="I46" s="76"/>
       <c r="J46" s="76"/>
@@ -6892,16 +6815,14 @@
       <c r="AN46" s="76"/>
       <c r="AO46" s="76"/>
     </row>
-    <row r="47" spans="1:41" ht="18" customHeight="1">
-      <c r="A47" s="121"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="130" t="s">
-        <v>330</v>
-      </c>
-      <c r="E47" s="130"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
+    <row r="47" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="76"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
       <c r="H47" s="76"/>
       <c r="I47" s="76"/>
       <c r="J47" s="76"/>
@@ -6937,16 +6858,14 @@
       <c r="AN47" s="76"/>
       <c r="AO47" s="76"/>
     </row>
-    <row r="48" spans="1:41" ht="17.25">
-      <c r="A48" s="121"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="130" t="s">
-        <v>331</v>
-      </c>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
+    <row r="48" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="76"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
       <c r="H48" s="76"/>
       <c r="I48" s="76"/>
       <c r="J48" s="76"/>
@@ -6982,16 +6901,14 @@
       <c r="AN48" s="76"/>
       <c r="AO48" s="76"/>
     </row>
-    <row r="49" spans="1:41" ht="17.25">
-      <c r="A49" s="121"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="132" t="s">
-        <v>332</v>
-      </c>
-      <c r="E49" s="132"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
+    <row r="49" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="76"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
       <c r="H49" s="76"/>
       <c r="I49" s="76"/>
       <c r="J49" s="76"/>
@@ -7027,14 +6944,14 @@
       <c r="AN49" s="76"/>
       <c r="AO49" s="76"/>
     </row>
-    <row r="50" spans="1:41" ht="17.25">
-      <c r="A50" s="121"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
+    <row r="50" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="76"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
       <c r="H50" s="76"/>
       <c r="I50" s="76"/>
       <c r="J50" s="76"/>
@@ -7070,16 +6987,14 @@
       <c r="AN50" s="76"/>
       <c r="AO50" s="76"/>
     </row>
-    <row r="51" spans="1:41" ht="17.25">
-      <c r="A51" s="121"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="145" t="s">
-        <v>333</v>
-      </c>
-      <c r="E51" s="145"/>
-      <c r="F51" s="145"/>
-      <c r="G51" s="145"/>
+    <row r="51" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="76"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
       <c r="H51" s="76"/>
       <c r="I51" s="76"/>
       <c r="J51" s="76"/>
@@ -7115,14 +7030,14 @@
       <c r="AN51" s="76"/>
       <c r="AO51" s="76"/>
     </row>
-    <row r="52" spans="1:41" ht="17.25">
-      <c r="A52" s="121"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="145"/>
-      <c r="E52" s="145"/>
-      <c r="F52" s="145"/>
-      <c r="G52" s="145"/>
+    <row r="52" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="76"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
       <c r="H52" s="76"/>
       <c r="I52" s="76"/>
       <c r="J52" s="76"/>
@@ -7158,16 +7073,14 @@
       <c r="AN52" s="76"/>
       <c r="AO52" s="76"/>
     </row>
-    <row r="53" spans="1:41" ht="17.25">
-      <c r="A53" s="121"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="132" t="s">
-        <v>334</v>
-      </c>
-      <c r="E53" s="132"/>
-      <c r="F53" s="132"/>
-      <c r="G53" s="132"/>
+    <row r="53" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="76"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
       <c r="H53" s="76"/>
       <c r="I53" s="76"/>
       <c r="J53" s="76"/>
@@ -7203,14 +7116,14 @@
       <c r="AN53" s="76"/>
       <c r="AO53" s="76"/>
     </row>
-    <row r="54" spans="1:41" ht="17.25">
-      <c r="A54" s="121"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="132"/>
+    <row r="54" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="76"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
       <c r="H54" s="76"/>
       <c r="I54" s="76"/>
       <c r="J54" s="76"/>
@@ -7246,16 +7159,14 @@
       <c r="AN54" s="76"/>
       <c r="AO54" s="76"/>
     </row>
-    <row r="55" spans="1:41" ht="17.25">
-      <c r="A55" s="121"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="130" t="s">
-        <v>335</v>
-      </c>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="130"/>
+    <row r="55" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="76"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
       <c r="H55" s="76"/>
       <c r="I55" s="76"/>
       <c r="J55" s="76"/>
@@ -7291,14 +7202,14 @@
       <c r="AN55" s="76"/>
       <c r="AO55" s="76"/>
     </row>
-    <row r="56" spans="1:41" ht="17.25">
-      <c r="A56" s="121"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="131"/>
+    <row r="56" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="76"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
       <c r="H56" s="76"/>
       <c r="I56" s="76"/>
       <c r="J56" s="76"/>
@@ -7334,7 +7245,7 @@
       <c r="AN56" s="76"/>
       <c r="AO56" s="76"/>
     </row>
-    <row r="57" spans="1:41" ht="17.25">
+    <row r="57" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A57" s="76"/>
       <c r="B57" s="76"/>
       <c r="C57" s="76"/>
@@ -7377,7 +7288,7 @@
       <c r="AN57" s="76"/>
       <c r="AO57" s="76"/>
     </row>
-    <row r="58" spans="1:41" ht="17.25">
+    <row r="58" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A58" s="76"/>
       <c r="B58" s="76"/>
       <c r="C58" s="76"/>
@@ -7420,20 +7331,14 @@
       <c r="AN58" s="76"/>
       <c r="AO58" s="76"/>
     </row>
-    <row r="59" spans="1:41" ht="27.75" customHeight="1">
-      <c r="A59" s="121" t="s">
-        <v>336</v>
-      </c>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="106" t="s">
-        <v>318</v>
-      </c>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106" t="s">
-        <v>319</v>
-      </c>
-      <c r="G59" s="106"/>
+    <row r="59" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="76"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
       <c r="H59" s="76"/>
       <c r="I59" s="76"/>
       <c r="J59" s="76"/>
@@ -7469,14 +7374,14 @@
       <c r="AN59" s="76"/>
       <c r="AO59" s="76"/>
     </row>
-    <row r="60" spans="1:41" ht="27.75" customHeight="1">
-      <c r="A60" s="121"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106"/>
+    <row r="60" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="76"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
       <c r="H60" s="76"/>
       <c r="I60" s="76"/>
       <c r="J60" s="76"/>
@@ -7512,18 +7417,14 @@
       <c r="AN60" s="76"/>
       <c r="AO60" s="76"/>
     </row>
-    <row r="61" spans="1:41" ht="18" customHeight="1">
-      <c r="A61" s="121"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="142" t="s">
-        <v>337</v>
-      </c>
-      <c r="E61" s="142"/>
-      <c r="F61" s="135" t="s">
-        <v>338</v>
-      </c>
-      <c r="G61" s="135"/>
+    <row r="61" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="76"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
       <c r="H61" s="76"/>
       <c r="I61" s="76"/>
       <c r="J61" s="76"/>
@@ -7559,16 +7460,14 @@
       <c r="AN61" s="76"/>
       <c r="AO61" s="76"/>
     </row>
-    <row r="62" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A62" s="121"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="159" t="s">
-        <v>339</v>
-      </c>
-      <c r="E62" s="159"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
+    <row r="62" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="76"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
       <c r="H62" s="76"/>
       <c r="I62" s="76"/>
       <c r="J62" s="76"/>
@@ -7604,18 +7503,14 @@
       <c r="AN62" s="76"/>
       <c r="AO62" s="76"/>
     </row>
-    <row r="63" spans="1:41" ht="18" customHeight="1">
-      <c r="A63" s="121"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="143" t="s">
-        <v>340</v>
-      </c>
-      <c r="E63" s="143"/>
-      <c r="F63" s="134" t="s">
-        <v>341</v>
-      </c>
-      <c r="G63" s="134"/>
+    <row r="63" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="76"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
       <c r="H63" s="76"/>
       <c r="I63" s="76"/>
       <c r="J63" s="76"/>
@@ -7651,16 +7546,14 @@
       <c r="AN63" s="76"/>
       <c r="AO63" s="76"/>
     </row>
-    <row r="64" spans="1:41" ht="18" customHeight="1">
-      <c r="A64" s="121"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="143"/>
-      <c r="E64" s="143"/>
-      <c r="F64" s="135" t="s">
-        <v>342</v>
-      </c>
-      <c r="G64" s="135"/>
+    <row r="64" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="76"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
       <c r="H64" s="76"/>
       <c r="I64" s="76"/>
       <c r="J64" s="76"/>
@@ -7696,16 +7589,14 @@
       <c r="AN64" s="76"/>
       <c r="AO64" s="76"/>
     </row>
-    <row r="65" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A65" s="121"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="109" t="s">
-        <v>327</v>
-      </c>
-      <c r="E65" s="109"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="135"/>
+    <row r="65" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="76"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
       <c r="H65" s="76"/>
       <c r="I65" s="76"/>
       <c r="J65" s="76"/>
@@ -7741,18 +7632,14 @@
       <c r="AN65" s="76"/>
       <c r="AO65" s="76"/>
     </row>
-    <row r="66" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A66" s="121"/>
-      <c r="B66" s="121"/>
-      <c r="C66" s="121"/>
-      <c r="D66" s="110" t="s">
-        <v>328</v>
-      </c>
-      <c r="E66" s="110"/>
-      <c r="F66" s="134" t="s">
-        <v>343</v>
-      </c>
-      <c r="G66" s="134"/>
+    <row r="66" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="76"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
       <c r="H66" s="76"/>
       <c r="I66" s="76"/>
       <c r="J66" s="76"/>
@@ -7788,16 +7675,14 @@
       <c r="AN66" s="76"/>
       <c r="AO66" s="76"/>
     </row>
-    <row r="67" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A67" s="121"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="121"/>
-      <c r="D67" s="109" t="s">
-        <v>344</v>
-      </c>
-      <c r="E67" s="109"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="107"/>
+    <row r="67" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="76"/>
+      <c r="B67" s="76"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
       <c r="H67" s="76"/>
       <c r="I67" s="76"/>
       <c r="J67" s="76"/>
@@ -7833,16 +7718,14 @@
       <c r="AN67" s="76"/>
       <c r="AO67" s="76"/>
     </row>
-    <row r="68" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A68" s="121"/>
-      <c r="B68" s="121"/>
-      <c r="C68" s="121"/>
-      <c r="D68" s="110" t="s">
-        <v>323</v>
-      </c>
-      <c r="E68" s="110"/>
-      <c r="F68" s="107"/>
-      <c r="G68" s="107"/>
+    <row r="68" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="76"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
       <c r="H68" s="76"/>
       <c r="I68" s="76"/>
       <c r="J68" s="76"/>
@@ -7878,14 +7761,14 @@
       <c r="AN68" s="76"/>
       <c r="AO68" s="76"/>
     </row>
-    <row r="69" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A69" s="121"/>
-      <c r="B69" s="121"/>
-      <c r="C69" s="121"/>
-      <c r="D69" s="107"/>
-      <c r="E69" s="107"/>
-      <c r="F69" s="107"/>
-      <c r="G69" s="107"/>
+    <row r="69" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="76"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
       <c r="H69" s="76"/>
       <c r="I69" s="76"/>
       <c r="J69" s="76"/>
@@ -7921,16 +7804,14 @@
       <c r="AN69" s="76"/>
       <c r="AO69" s="76"/>
     </row>
-    <row r="70" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A70" s="121"/>
-      <c r="B70" s="121"/>
-      <c r="C70" s="121"/>
-      <c r="D70" s="144" t="s">
-        <v>333</v>
-      </c>
-      <c r="E70" s="144"/>
-      <c r="F70" s="144"/>
-      <c r="G70" s="144"/>
+    <row r="70" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="76"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
       <c r="H70" s="76"/>
       <c r="I70" s="76"/>
       <c r="J70" s="76"/>
@@ -7966,14 +7847,14 @@
       <c r="AN70" s="76"/>
       <c r="AO70" s="76"/>
     </row>
-    <row r="71" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A71" s="121"/>
-      <c r="B71" s="121"/>
-      <c r="C71" s="121"/>
-      <c r="D71" s="144"/>
-      <c r="E71" s="144"/>
-      <c r="F71" s="144"/>
-      <c r="G71" s="144"/>
+    <row r="71" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="76"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
       <c r="H71" s="76"/>
       <c r="I71" s="76"/>
       <c r="J71" s="76"/>
@@ -8009,16 +7890,14 @@
       <c r="AN71" s="76"/>
       <c r="AO71" s="76"/>
     </row>
-    <row r="72" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A72" s="121"/>
-      <c r="B72" s="121"/>
-      <c r="C72" s="121"/>
-      <c r="D72" s="134" t="s">
-        <v>345</v>
-      </c>
-      <c r="E72" s="134"/>
-      <c r="F72" s="134"/>
-      <c r="G72" s="134"/>
+    <row r="72" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="76"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
       <c r="H72" s="76"/>
       <c r="I72" s="76"/>
       <c r="J72" s="76"/>
@@ -8054,16 +7933,14 @@
       <c r="AN72" s="76"/>
       <c r="AO72" s="76"/>
     </row>
-    <row r="73" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A73" s="121"/>
-      <c r="B73" s="121"/>
-      <c r="C73" s="121"/>
-      <c r="D73" s="134" t="s">
-        <v>346</v>
-      </c>
-      <c r="E73" s="134"/>
-      <c r="F73" s="134"/>
-      <c r="G73" s="134"/>
+    <row r="73" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="76"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
       <c r="H73" s="76"/>
       <c r="I73" s="76"/>
       <c r="J73" s="76"/>
@@ -8099,16 +7976,14 @@
       <c r="AN73" s="76"/>
       <c r="AO73" s="76"/>
     </row>
-    <row r="74" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A74" s="121"/>
-      <c r="B74" s="121"/>
-      <c r="C74" s="121"/>
-      <c r="D74" s="135" t="s">
-        <v>347</v>
-      </c>
-      <c r="E74" s="135"/>
-      <c r="F74" s="135"/>
-      <c r="G74" s="135"/>
+    <row r="74" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="76"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
       <c r="H74" s="76"/>
       <c r="I74" s="76"/>
       <c r="J74" s="76"/>
@@ -8144,14 +8019,14 @@
       <c r="AN74" s="76"/>
       <c r="AO74" s="76"/>
     </row>
-    <row r="75" spans="1:41" ht="17.25">
-      <c r="A75" s="121"/>
-      <c r="B75" s="121"/>
-      <c r="C75" s="121"/>
-      <c r="D75" s="135"/>
-      <c r="E75" s="135"/>
-      <c r="F75" s="135"/>
-      <c r="G75" s="135"/>
+    <row r="75" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="76"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="76"/>
       <c r="H75" s="76"/>
       <c r="I75" s="76"/>
       <c r="J75" s="76"/>
@@ -8187,14 +8062,14 @@
       <c r="AN75" s="76"/>
       <c r="AO75" s="76"/>
     </row>
-    <row r="76" spans="1:41" ht="17.25">
-      <c r="A76" s="121"/>
-      <c r="B76" s="121"/>
-      <c r="C76" s="121"/>
-      <c r="D76" s="140"/>
-      <c r="E76" s="140"/>
-      <c r="F76" s="140"/>
-      <c r="G76" s="140"/>
+    <row r="76" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="76"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
       <c r="H76" s="76"/>
       <c r="I76" s="76"/>
       <c r="J76" s="76"/>
@@ -8230,14 +8105,14 @@
       <c r="AN76" s="76"/>
       <c r="AO76" s="76"/>
     </row>
-    <row r="77" spans="1:41" ht="18" customHeight="1">
-      <c r="A77" s="121"/>
-      <c r="B77" s="121"/>
-      <c r="C77" s="121"/>
-      <c r="D77" s="140"/>
-      <c r="E77" s="140"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="140"/>
+    <row r="77" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="76"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
       <c r="H77" s="76"/>
       <c r="I77" s="76"/>
       <c r="J77" s="76"/>
@@ -8273,7 +8148,7 @@
       <c r="AN77" s="76"/>
       <c r="AO77" s="76"/>
     </row>
-    <row r="78" spans="1:41" ht="18" customHeight="1">
+    <row r="78" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="76"/>
       <c r="B78" s="76"/>
       <c r="C78" s="76"/>
@@ -8316,7 +8191,7 @@
       <c r="AN78" s="76"/>
       <c r="AO78" s="76"/>
     </row>
-    <row r="79" spans="1:41" ht="18" customHeight="1">
+    <row r="79" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="76"/>
       <c r="B79" s="76"/>
       <c r="C79" s="76"/>
@@ -8359,20 +8234,14 @@
       <c r="AN79" s="76"/>
       <c r="AO79" s="76"/>
     </row>
-    <row r="80" spans="1:41" ht="15" customHeight="1">
-      <c r="A80" s="133" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="133"/>
-      <c r="C80" s="133"/>
-      <c r="D80" s="138" t="s">
-        <v>318</v>
-      </c>
-      <c r="E80" s="138"/>
-      <c r="F80" s="138" t="s">
-        <v>319</v>
-      </c>
-      <c r="G80" s="138"/>
+    <row r="80" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="76"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
       <c r="H80" s="76"/>
       <c r="I80" s="76"/>
       <c r="J80" s="76"/>
@@ -8408,14 +8277,14 @@
       <c r="AN80" s="76"/>
       <c r="AO80" s="76"/>
     </row>
-    <row r="81" spans="1:41" ht="17.25">
-      <c r="A81" s="133"/>
-      <c r="B81" s="133"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="138"/>
-      <c r="E81" s="138"/>
-      <c r="F81" s="138"/>
-      <c r="G81" s="138"/>
+    <row r="81" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="76"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
       <c r="H81" s="76"/>
       <c r="I81" s="76"/>
       <c r="J81" s="76"/>
@@ -8451,18 +8320,14 @@
       <c r="AN81" s="76"/>
       <c r="AO81" s="76"/>
     </row>
-    <row r="82" spans="1:41" ht="17.25">
-      <c r="A82" s="133"/>
-      <c r="B82" s="133"/>
-      <c r="C82" s="133"/>
-      <c r="D82" s="137" t="s">
-        <v>348</v>
-      </c>
-      <c r="E82" s="137"/>
-      <c r="F82" s="141" t="s">
-        <v>349</v>
-      </c>
-      <c r="G82" s="141"/>
+    <row r="82" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="76"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
       <c r="H82" s="76"/>
       <c r="I82" s="76"/>
       <c r="J82" s="76"/>
@@ -8498,16 +8363,14 @@
       <c r="AN82" s="76"/>
       <c r="AO82" s="76"/>
     </row>
-    <row r="83" spans="1:41" ht="17.25">
-      <c r="A83" s="133"/>
-      <c r="B83" s="133"/>
-      <c r="C83" s="133"/>
-      <c r="D83" s="137" t="s">
-        <v>350</v>
-      </c>
-      <c r="E83" s="137"/>
-      <c r="F83" s="141"/>
-      <c r="G83" s="141"/>
+    <row r="83" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="76"/>
+      <c r="B83" s="76"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
       <c r="H83" s="76"/>
       <c r="I83" s="76"/>
       <c r="J83" s="76"/>
@@ -8543,18 +8406,14 @@
       <c r="AN83" s="76"/>
       <c r="AO83" s="76"/>
     </row>
-    <row r="84" spans="1:41" ht="17.25">
-      <c r="A84" s="133"/>
-      <c r="B84" s="133"/>
-      <c r="C84" s="133"/>
-      <c r="D84" s="137" t="s">
-        <v>351</v>
-      </c>
-      <c r="E84" s="137"/>
-      <c r="F84" s="137" t="s">
-        <v>352</v>
-      </c>
-      <c r="G84" s="137"/>
+    <row r="84" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="76"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
       <c r="H84" s="76"/>
       <c r="I84" s="76"/>
       <c r="J84" s="76"/>
@@ -8590,16 +8449,14 @@
       <c r="AN84" s="76"/>
       <c r="AO84" s="76"/>
     </row>
-    <row r="85" spans="1:41" ht="17.25">
-      <c r="A85" s="133"/>
-      <c r="B85" s="133"/>
-      <c r="C85" s="133"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="136"/>
-      <c r="F85" s="137" t="s">
-        <v>353</v>
-      </c>
-      <c r="G85" s="137"/>
+    <row r="85" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="76"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
       <c r="H85" s="76"/>
       <c r="I85" s="76"/>
       <c r="J85" s="76"/>
@@ -8635,16 +8492,14 @@
       <c r="AN85" s="76"/>
       <c r="AO85" s="76"/>
     </row>
-    <row r="86" spans="1:41" ht="17.25">
-      <c r="A86" s="133"/>
-      <c r="B86" s="133"/>
-      <c r="C86" s="133"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="136"/>
-      <c r="F86" s="137" t="s">
-        <v>354</v>
-      </c>
-      <c r="G86" s="137"/>
+    <row r="86" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="76"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
       <c r="H86" s="76"/>
       <c r="I86" s="76"/>
       <c r="J86" s="76"/>
@@ -8680,16 +8535,14 @@
       <c r="AN86" s="76"/>
       <c r="AO86" s="76"/>
     </row>
-    <row r="87" spans="1:41" ht="17.25">
-      <c r="A87" s="133"/>
-      <c r="B87" s="133"/>
-      <c r="C87" s="133"/>
-      <c r="D87" s="136"/>
-      <c r="E87" s="136"/>
-      <c r="F87" s="141" t="s">
-        <v>355</v>
-      </c>
-      <c r="G87" s="141"/>
+    <row r="87" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="76"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
       <c r="H87" s="76"/>
       <c r="I87" s="76"/>
       <c r="J87" s="76"/>
@@ -8725,14 +8578,14 @@
       <c r="AN87" s="76"/>
       <c r="AO87" s="76"/>
     </row>
-    <row r="88" spans="1:41" ht="17.25">
-      <c r="A88" s="133"/>
-      <c r="B88" s="133"/>
-      <c r="C88" s="133"/>
-      <c r="D88" s="136"/>
-      <c r="E88" s="136"/>
-      <c r="F88" s="141"/>
-      <c r="G88" s="141"/>
+    <row r="88" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="76"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
       <c r="H88" s="76"/>
       <c r="I88" s="76"/>
       <c r="J88" s="76"/>
@@ -8768,14 +8621,14 @@
       <c r="AN88" s="76"/>
       <c r="AO88" s="76"/>
     </row>
-    <row r="89" spans="1:41" ht="17.25">
-      <c r="A89" s="133"/>
-      <c r="B89" s="133"/>
-      <c r="C89" s="133"/>
-      <c r="D89" s="108"/>
-      <c r="E89" s="108"/>
-      <c r="F89" s="141"/>
-      <c r="G89" s="141"/>
+    <row r="89" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="76"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="76"/>
       <c r="H89" s="76"/>
       <c r="I89" s="76"/>
       <c r="J89" s="76"/>
@@ -8811,16 +8664,14 @@
       <c r="AN89" s="76"/>
       <c r="AO89" s="76"/>
     </row>
-    <row r="90" spans="1:41" ht="17.25">
-      <c r="A90" s="133"/>
-      <c r="B90" s="133"/>
-      <c r="C90" s="133"/>
-      <c r="D90" s="139" t="s">
-        <v>333</v>
-      </c>
-      <c r="E90" s="139"/>
-      <c r="F90" s="139"/>
-      <c r="G90" s="139"/>
+    <row r="90" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="76"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
       <c r="H90" s="76"/>
       <c r="I90" s="76"/>
       <c r="J90" s="76"/>
@@ -8856,14 +8707,14 @@
       <c r="AN90" s="76"/>
       <c r="AO90" s="76"/>
     </row>
-    <row r="91" spans="1:41" ht="17.25">
-      <c r="A91" s="133"/>
-      <c r="B91" s="133"/>
-      <c r="C91" s="133"/>
-      <c r="D91" s="139"/>
-      <c r="E91" s="139"/>
-      <c r="F91" s="139"/>
-      <c r="G91" s="139"/>
+    <row r="91" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="76"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
       <c r="H91" s="76"/>
       <c r="I91" s="76"/>
       <c r="J91" s="76"/>
@@ -8899,16 +8750,14 @@
       <c r="AN91" s="76"/>
       <c r="AO91" s="76"/>
     </row>
-    <row r="92" spans="1:41" ht="17.25">
-      <c r="A92" s="133"/>
-      <c r="B92" s="133"/>
-      <c r="C92" s="133"/>
-      <c r="D92" s="137" t="s">
-        <v>356</v>
-      </c>
-      <c r="E92" s="137"/>
-      <c r="F92" s="137"/>
-      <c r="G92" s="137"/>
+    <row r="92" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="76"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="76"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
       <c r="H92" s="76"/>
       <c r="I92" s="76"/>
       <c r="J92" s="76"/>
@@ -8944,16 +8793,14 @@
       <c r="AN92" s="76"/>
       <c r="AO92" s="76"/>
     </row>
-    <row r="93" spans="1:41" ht="17.25">
-      <c r="A93" s="133"/>
-      <c r="B93" s="133"/>
-      <c r="C93" s="133"/>
-      <c r="D93" s="137" t="s">
-        <v>357</v>
-      </c>
-      <c r="E93" s="137"/>
-      <c r="F93" s="137"/>
-      <c r="G93" s="137"/>
+    <row r="93" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="76"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
       <c r="H93" s="76"/>
       <c r="I93" s="76"/>
       <c r="J93" s="76"/>
@@ -8989,16 +8836,14 @@
       <c r="AN93" s="76"/>
       <c r="AO93" s="76"/>
     </row>
-    <row r="94" spans="1:41" ht="17.25">
-      <c r="A94" s="133"/>
-      <c r="B94" s="133"/>
-      <c r="C94" s="133"/>
-      <c r="D94" s="141" t="s">
-        <v>358</v>
-      </c>
-      <c r="E94" s="141"/>
-      <c r="F94" s="141"/>
-      <c r="G94" s="141"/>
+    <row r="94" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="76"/>
+      <c r="B94" s="76"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
       <c r="H94" s="76"/>
       <c r="I94" s="76"/>
       <c r="J94" s="76"/>
@@ -9034,14 +8879,14 @@
       <c r="AN94" s="76"/>
       <c r="AO94" s="76"/>
     </row>
-    <row r="95" spans="1:41" ht="17.25">
-      <c r="A95" s="133"/>
-      <c r="B95" s="133"/>
-      <c r="C95" s="133"/>
-      <c r="D95" s="141"/>
-      <c r="E95" s="141"/>
-      <c r="F95" s="141"/>
-      <c r="G95" s="141"/>
+    <row r="95" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="76"/>
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
       <c r="H95" s="76"/>
       <c r="I95" s="76"/>
       <c r="J95" s="76"/>
@@ -9077,14 +8922,14 @@
       <c r="AN95" s="76"/>
       <c r="AO95" s="76"/>
     </row>
-    <row r="96" spans="1:41" ht="17.25">
-      <c r="A96" s="133"/>
-      <c r="B96" s="133"/>
-      <c r="C96" s="133"/>
-      <c r="D96" s="141"/>
-      <c r="E96" s="141"/>
-      <c r="F96" s="141"/>
-      <c r="G96" s="141"/>
+    <row r="96" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="76"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
       <c r="H96" s="76"/>
       <c r="I96" s="76"/>
       <c r="J96" s="76"/>
@@ -9120,7 +8965,7 @@
       <c r="AN96" s="76"/>
       <c r="AO96" s="76"/>
     </row>
-    <row r="97" spans="1:41" ht="17.25">
+    <row r="97" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A97" s="76"/>
       <c r="B97" s="76"/>
       <c r="C97" s="76"/>
@@ -9163,7 +9008,7 @@
       <c r="AN97" s="76"/>
       <c r="AO97" s="76"/>
     </row>
-    <row r="98" spans="1:41" ht="17.25">
+    <row r="98" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A98" s="76"/>
       <c r="B98" s="76"/>
       <c r="C98" s="76"/>
@@ -9206,7 +9051,7 @@
       <c r="AN98" s="76"/>
       <c r="AO98" s="76"/>
     </row>
-    <row r="99" spans="1:41" ht="17.25">
+    <row r="99" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A99" s="76"/>
       <c r="B99" s="76"/>
       <c r="C99" s="76"/>
@@ -9249,7 +9094,7 @@
       <c r="AN99" s="76"/>
       <c r="AO99" s="76"/>
     </row>
-    <row r="100" spans="1:41" ht="17.25">
+    <row r="100" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A100" s="76"/>
       <c r="B100" s="76"/>
       <c r="C100" s="76"/>
@@ -9292,7 +9137,7 @@
       <c r="AN100" s="76"/>
       <c r="AO100" s="76"/>
     </row>
-    <row r="101" spans="1:41" ht="17.25">
+    <row r="101" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A101" s="76"/>
       <c r="B101" s="76"/>
       <c r="C101" s="76"/>
@@ -9335,7 +9180,7 @@
       <c r="AN101" s="76"/>
       <c r="AO101" s="76"/>
     </row>
-    <row r="102" spans="1:41" ht="17.25">
+    <row r="102" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A102" s="76"/>
       <c r="B102" s="76"/>
       <c r="C102" s="76"/>
@@ -9378,20 +9223,14 @@
       <c r="AN102" s="76"/>
       <c r="AO102" s="76"/>
     </row>
-    <row r="103" spans="1:41" ht="17.25">
-      <c r="A103" s="133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" s="133"/>
-      <c r="C103" s="133"/>
-      <c r="D103" s="146" t="s">
-        <v>318</v>
-      </c>
-      <c r="E103" s="146"/>
-      <c r="F103" s="146" t="s">
-        <v>319</v>
-      </c>
-      <c r="G103" s="146"/>
+    <row r="103" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="76"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
       <c r="H103" s="76"/>
       <c r="I103" s="76"/>
       <c r="J103" s="76"/>
@@ -9427,14 +9266,14 @@
       <c r="AN103" s="76"/>
       <c r="AO103" s="76"/>
     </row>
-    <row r="104" spans="1:41" ht="17.25">
-      <c r="A104" s="133"/>
-      <c r="B104" s="133"/>
-      <c r="C104" s="133"/>
-      <c r="D104" s="146"/>
-      <c r="E104" s="146"/>
-      <c r="F104" s="146"/>
-      <c r="G104" s="146"/>
+    <row r="104" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="76"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
       <c r="H104" s="76"/>
       <c r="I104" s="76"/>
       <c r="J104" s="76"/>
@@ -9470,14 +9309,14 @@
       <c r="AN104" s="76"/>
       <c r="AO104" s="76"/>
     </row>
-    <row r="105" spans="1:41" ht="17.25">
-      <c r="A105" s="133"/>
-      <c r="B105" s="133"/>
-      <c r="C105" s="133"/>
-      <c r="D105" s="147"/>
-      <c r="E105" s="147"/>
-      <c r="F105" s="148"/>
-      <c r="G105" s="148"/>
+    <row r="105" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="76"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
       <c r="H105" s="76"/>
       <c r="I105" s="76"/>
       <c r="J105" s="76"/>
@@ -9513,14 +9352,14 @@
       <c r="AN105" s="76"/>
       <c r="AO105" s="76"/>
     </row>
-    <row r="106" spans="1:41" ht="17.25">
-      <c r="A106" s="133"/>
-      <c r="B106" s="133"/>
-      <c r="C106" s="133"/>
-      <c r="D106" s="147"/>
-      <c r="E106" s="147"/>
-      <c r="F106" s="148"/>
-      <c r="G106" s="148"/>
+    <row r="106" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="76"/>
+      <c r="B106" s="76"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
       <c r="H106" s="76"/>
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
@@ -9556,14 +9395,14 @@
       <c r="AN106" s="76"/>
       <c r="AO106" s="76"/>
     </row>
-    <row r="107" spans="1:41" ht="17.25">
-      <c r="A107" s="133"/>
-      <c r="B107" s="133"/>
-      <c r="C107" s="133"/>
-      <c r="D107" s="147"/>
-      <c r="E107" s="147"/>
-      <c r="F107" s="147"/>
-      <c r="G107" s="147"/>
+    <row r="107" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="76"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
       <c r="H107" s="76"/>
       <c r="I107" s="76"/>
       <c r="J107" s="76"/>
@@ -9599,14 +9438,14 @@
       <c r="AN107" s="76"/>
       <c r="AO107" s="76"/>
     </row>
-    <row r="108" spans="1:41" ht="17.25">
-      <c r="A108" s="133"/>
-      <c r="B108" s="133"/>
-      <c r="C108" s="133"/>
-      <c r="D108" s="149"/>
-      <c r="E108" s="149"/>
-      <c r="F108" s="147"/>
-      <c r="G108" s="147"/>
+    <row r="108" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="76"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
       <c r="H108" s="76"/>
       <c r="I108" s="76"/>
       <c r="J108" s="76"/>
@@ -9642,14 +9481,14 @@
       <c r="AN108" s="76"/>
       <c r="AO108" s="76"/>
     </row>
-    <row r="109" spans="1:41" ht="17.25">
-      <c r="A109" s="133"/>
-      <c r="B109" s="133"/>
-      <c r="C109" s="133"/>
-      <c r="D109" s="149"/>
-      <c r="E109" s="149"/>
-      <c r="F109" s="147"/>
-      <c r="G109" s="147"/>
+    <row r="109" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="76"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
       <c r="H109" s="76"/>
       <c r="I109" s="76"/>
       <c r="J109" s="76"/>
@@ -9685,14 +9524,14 @@
       <c r="AN109" s="76"/>
       <c r="AO109" s="76"/>
     </row>
-    <row r="110" spans="1:41" ht="17.25">
-      <c r="A110" s="133"/>
-      <c r="B110" s="133"/>
-      <c r="C110" s="133"/>
-      <c r="D110" s="149"/>
-      <c r="E110" s="149"/>
-      <c r="F110" s="148"/>
-      <c r="G110" s="148"/>
+    <row r="110" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="76"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
       <c r="H110" s="76"/>
       <c r="I110" s="76"/>
       <c r="J110" s="76"/>
@@ -9728,14 +9567,14 @@
       <c r="AN110" s="76"/>
       <c r="AO110" s="76"/>
     </row>
-    <row r="111" spans="1:41" ht="17.25">
-      <c r="A111" s="133"/>
-      <c r="B111" s="133"/>
-      <c r="C111" s="133"/>
-      <c r="D111" s="149"/>
-      <c r="E111" s="149"/>
-      <c r="F111" s="148"/>
-      <c r="G111" s="148"/>
+    <row r="111" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="76"/>
+      <c r="B111" s="76"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
       <c r="H111" s="76"/>
       <c r="I111" s="76"/>
       <c r="J111" s="76"/>
@@ -9771,14 +9610,14 @@
       <c r="AN111" s="76"/>
       <c r="AO111" s="76"/>
     </row>
-    <row r="112" spans="1:41" ht="17.25">
-      <c r="A112" s="133"/>
-      <c r="B112" s="133"/>
-      <c r="C112" s="133"/>
-      <c r="D112" s="111"/>
-      <c r="E112" s="111"/>
-      <c r="F112" s="148"/>
-      <c r="G112" s="148"/>
+    <row r="112" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="76"/>
+      <c r="B112" s="76"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
       <c r="H112" s="76"/>
       <c r="I112" s="76"/>
       <c r="J112" s="76"/>
@@ -9814,16 +9653,14 @@
       <c r="AN112" s="76"/>
       <c r="AO112" s="76"/>
     </row>
-    <row r="113" spans="1:41" ht="17.25">
-      <c r="A113" s="133"/>
-      <c r="B113" s="133"/>
-      <c r="C113" s="133"/>
-      <c r="D113" s="150" t="s">
-        <v>333</v>
-      </c>
-      <c r="E113" s="150"/>
-      <c r="F113" s="150"/>
-      <c r="G113" s="150"/>
+    <row r="113" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="76"/>
+      <c r="B113" s="76"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
       <c r="H113" s="76"/>
       <c r="I113" s="76"/>
       <c r="J113" s="76"/>
@@ -9859,14 +9696,14 @@
       <c r="AN113" s="76"/>
       <c r="AO113" s="76"/>
     </row>
-    <row r="114" spans="1:41" ht="17.25">
-      <c r="A114" s="133"/>
-      <c r="B114" s="133"/>
-      <c r="C114" s="133"/>
-      <c r="D114" s="150"/>
-      <c r="E114" s="150"/>
-      <c r="F114" s="150"/>
-      <c r="G114" s="150"/>
+    <row r="114" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="76"/>
+      <c r="B114" s="76"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
       <c r="H114" s="76"/>
       <c r="I114" s="76"/>
       <c r="J114" s="76"/>
@@ -9902,14 +9739,14 @@
       <c r="AN114" s="76"/>
       <c r="AO114" s="76"/>
     </row>
-    <row r="115" spans="1:41" ht="17.25">
-      <c r="A115" s="133"/>
-      <c r="B115" s="133"/>
-      <c r="C115" s="133"/>
-      <c r="D115" s="147"/>
-      <c r="E115" s="147"/>
-      <c r="F115" s="147"/>
-      <c r="G115" s="147"/>
+    <row r="115" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="76"/>
+      <c r="B115" s="76"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
       <c r="H115" s="76"/>
       <c r="I115" s="76"/>
       <c r="J115" s="76"/>
@@ -9945,14 +9782,14 @@
       <c r="AN115" s="76"/>
       <c r="AO115" s="76"/>
     </row>
-    <row r="116" spans="1:41" ht="17.25">
-      <c r="A116" s="133"/>
-      <c r="B116" s="133"/>
-      <c r="C116" s="133"/>
-      <c r="D116" s="147"/>
-      <c r="E116" s="147"/>
-      <c r="F116" s="147"/>
-      <c r="G116" s="147"/>
+    <row r="116" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="76"/>
+      <c r="B116" s="76"/>
+      <c r="C116" s="76"/>
+      <c r="D116" s="76"/>
+      <c r="E116" s="76"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="76"/>
       <c r="H116" s="76"/>
       <c r="I116" s="76"/>
       <c r="J116" s="76"/>
@@ -9988,14 +9825,14 @@
       <c r="AN116" s="76"/>
       <c r="AO116" s="76"/>
     </row>
-    <row r="117" spans="1:41" ht="17.25">
-      <c r="A117" s="133"/>
-      <c r="B117" s="133"/>
-      <c r="C117" s="133"/>
-      <c r="D117" s="148"/>
-      <c r="E117" s="148"/>
-      <c r="F117" s="148"/>
-      <c r="G117" s="148"/>
+    <row r="117" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="76"/>
+      <c r="B117" s="76"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="76"/>
+      <c r="E117" s="76"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="76"/>
       <c r="H117" s="76"/>
       <c r="I117" s="76"/>
       <c r="J117" s="76"/>
@@ -10031,14 +9868,14 @@
       <c r="AN117" s="76"/>
       <c r="AO117" s="76"/>
     </row>
-    <row r="118" spans="1:41" ht="17.25">
-      <c r="A118" s="133"/>
-      <c r="B118" s="133"/>
-      <c r="C118" s="133"/>
-      <c r="D118" s="148"/>
-      <c r="E118" s="148"/>
-      <c r="F118" s="148"/>
-      <c r="G118" s="148"/>
+    <row r="118" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="76"/>
+      <c r="B118" s="76"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="76"/>
+      <c r="E118" s="76"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="76"/>
       <c r="H118" s="76"/>
       <c r="I118" s="76"/>
       <c r="J118" s="76"/>
@@ -10074,14 +9911,14 @@
       <c r="AN118" s="76"/>
       <c r="AO118" s="76"/>
     </row>
-    <row r="119" spans="1:41" ht="17.25">
-      <c r="A119" s="133"/>
-      <c r="B119" s="133"/>
-      <c r="C119" s="133"/>
-      <c r="D119" s="148"/>
-      <c r="E119" s="148"/>
-      <c r="F119" s="148"/>
-      <c r="G119" s="148"/>
+    <row r="119" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="76"/>
+      <c r="B119" s="76"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="76"/>
+      <c r="F119" s="76"/>
+      <c r="G119" s="76"/>
       <c r="H119" s="76"/>
       <c r="I119" s="76"/>
       <c r="J119" s="76"/>
@@ -10117,7 +9954,7 @@
       <c r="AN119" s="76"/>
       <c r="AO119" s="76"/>
     </row>
-    <row r="120" spans="1:41" ht="17.25">
+    <row r="120" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A120" s="76"/>
       <c r="B120" s="76"/>
       <c r="C120" s="76"/>
@@ -10160,7 +9997,7 @@
       <c r="AN120" s="76"/>
       <c r="AO120" s="76"/>
     </row>
-    <row r="121" spans="1:41" ht="17.25">
+    <row r="121" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A121" s="76"/>
       <c r="B121" s="76"/>
       <c r="C121" s="76"/>
@@ -10203,7 +10040,7 @@
       <c r="AN121" s="76"/>
       <c r="AO121" s="76"/>
     </row>
-    <row r="122" spans="1:41" ht="17.25">
+    <row r="122" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A122" s="76"/>
       <c r="B122" s="76"/>
       <c r="C122" s="76"/>
@@ -10246,7 +10083,7 @@
       <c r="AN122" s="76"/>
       <c r="AO122" s="76"/>
     </row>
-    <row r="123" spans="1:41" ht="17.25">
+    <row r="123" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A123" s="76"/>
       <c r="B123" s="76"/>
       <c r="C123" s="76"/>
@@ -10289,7 +10126,7 @@
       <c r="AN123" s="76"/>
       <c r="AO123" s="76"/>
     </row>
-    <row r="124" spans="1:41" ht="17.25">
+    <row r="124" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A124" s="76"/>
       <c r="B124" s="76"/>
       <c r="C124" s="76"/>
@@ -10332,7 +10169,7 @@
       <c r="AN124" s="76"/>
       <c r="AO124" s="76"/>
     </row>
-    <row r="125" spans="1:41" ht="17.25">
+    <row r="125" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A125" s="76"/>
       <c r="B125" s="76"/>
       <c r="C125" s="76"/>
@@ -10375,7 +10212,7 @@
       <c r="AN125" s="76"/>
       <c r="AO125" s="76"/>
     </row>
-    <row r="126" spans="1:41" ht="17.25">
+    <row r="126" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A126" s="76"/>
       <c r="B126" s="76"/>
       <c r="C126" s="76"/>
@@ -10418,7 +10255,7 @@
       <c r="AN126" s="76"/>
       <c r="AO126" s="76"/>
     </row>
-    <row r="127" spans="1:41" ht="17.25">
+    <row r="127" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A127" s="76"/>
       <c r="B127" s="76"/>
       <c r="C127" s="76"/>
@@ -10461,7 +10298,7 @@
       <c r="AN127" s="76"/>
       <c r="AO127" s="76"/>
     </row>
-    <row r="128" spans="1:41" ht="17.25">
+    <row r="128" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A128" s="76"/>
       <c r="B128" s="76"/>
       <c r="C128" s="76"/>
@@ -10504,7 +10341,7 @@
       <c r="AN128" s="76"/>
       <c r="AO128" s="76"/>
     </row>
-    <row r="129" spans="1:41" ht="17.25">
+    <row r="129" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A129" s="76"/>
       <c r="B129" s="76"/>
       <c r="C129" s="76"/>
@@ -10547,7 +10384,7 @@
       <c r="AN129" s="76"/>
       <c r="AO129" s="76"/>
     </row>
-    <row r="130" spans="1:41" ht="17.25">
+    <row r="130" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A130" s="76"/>
       <c r="B130" s="76"/>
       <c r="C130" s="76"/>
@@ -10590,7 +10427,7 @@
       <c r="AN130" s="76"/>
       <c r="AO130" s="76"/>
     </row>
-    <row r="131" spans="1:41" ht="17.25">
+    <row r="131" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A131" s="76"/>
       <c r="B131" s="76"/>
       <c r="C131" s="76"/>
@@ -10633,7 +10470,7 @@
       <c r="AN131" s="76"/>
       <c r="AO131" s="76"/>
     </row>
-    <row r="132" spans="1:41" ht="17.25">
+    <row r="132" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A132" s="76"/>
       <c r="B132" s="76"/>
       <c r="C132" s="76"/>
@@ -10676,7 +10513,7 @@
       <c r="AN132" s="76"/>
       <c r="AO132" s="76"/>
     </row>
-    <row r="133" spans="1:41" ht="17.25">
+    <row r="133" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A133" s="76"/>
       <c r="B133" s="76"/>
       <c r="C133" s="76"/>
@@ -10719,7 +10556,7 @@
       <c r="AN133" s="76"/>
       <c r="AO133" s="76"/>
     </row>
-    <row r="134" spans="1:41" ht="17.25">
+    <row r="134" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A134" s="76"/>
       <c r="B134" s="76"/>
       <c r="C134" s="76"/>
@@ -10762,7 +10599,7 @@
       <c r="AN134" s="76"/>
       <c r="AO134" s="76"/>
     </row>
-    <row r="135" spans="1:41" ht="17.25">
+    <row r="135" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A135" s="76"/>
       <c r="B135" s="76"/>
       <c r="C135" s="76"/>
@@ -10805,7 +10642,7 @@
       <c r="AN135" s="76"/>
       <c r="AO135" s="76"/>
     </row>
-    <row r="136" spans="1:41" ht="17.25">
+    <row r="136" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A136" s="76"/>
       <c r="B136" s="76"/>
       <c r="C136" s="76"/>
@@ -10848,7 +10685,7 @@
       <c r="AN136" s="76"/>
       <c r="AO136" s="76"/>
     </row>
-    <row r="137" spans="1:41" ht="17.25">
+    <row r="137" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A137" s="76"/>
       <c r="B137" s="76"/>
       <c r="C137" s="76"/>
@@ -10891,7 +10728,7 @@
       <c r="AN137" s="76"/>
       <c r="AO137" s="76"/>
     </row>
-    <row r="138" spans="1:41" ht="17.25">
+    <row r="138" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A138" s="76"/>
       <c r="B138" s="76"/>
       <c r="C138" s="76"/>
@@ -10934,7 +10771,7 @@
       <c r="AN138" s="76"/>
       <c r="AO138" s="76"/>
     </row>
-    <row r="139" spans="1:41" ht="17.25">
+    <row r="139" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A139" s="76"/>
       <c r="B139" s="76"/>
       <c r="C139" s="76"/>
@@ -10977,7 +10814,7 @@
       <c r="AN139" s="76"/>
       <c r="AO139" s="76"/>
     </row>
-    <row r="140" spans="1:41" ht="17.25">
+    <row r="140" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A140" s="76"/>
       <c r="B140" s="76"/>
       <c r="C140" s="76"/>
@@ -11020,7 +10857,7 @@
       <c r="AN140" s="76"/>
       <c r="AO140" s="76"/>
     </row>
-    <row r="141" spans="1:41" ht="17.25">
+    <row r="141" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A141" s="76"/>
       <c r="B141" s="76"/>
       <c r="C141" s="76"/>
@@ -11063,7 +10900,7 @@
       <c r="AN141" s="76"/>
       <c r="AO141" s="76"/>
     </row>
-    <row r="142" spans="1:41" ht="17.25">
+    <row r="142" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A142" s="76"/>
       <c r="B142" s="76"/>
       <c r="C142" s="76"/>
@@ -11106,7 +10943,7 @@
       <c r="AN142" s="76"/>
       <c r="AO142" s="76"/>
     </row>
-    <row r="143" spans="1:41" ht="17.25">
+    <row r="143" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A143" s="76"/>
       <c r="B143" s="76"/>
       <c r="C143" s="76"/>
@@ -11149,7 +10986,7 @@
       <c r="AN143" s="76"/>
       <c r="AO143" s="76"/>
     </row>
-    <row r="144" spans="1:41" ht="17.25">
+    <row r="144" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A144" s="76"/>
       <c r="B144" s="76"/>
       <c r="C144" s="76"/>
@@ -11192,7 +11029,7 @@
       <c r="AN144" s="76"/>
       <c r="AO144" s="76"/>
     </row>
-    <row r="145" spans="1:41" ht="17.25">
+    <row r="145" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A145" s="76"/>
       <c r="B145" s="76"/>
       <c r="C145" s="76"/>
@@ -11235,7 +11072,7 @@
       <c r="AN145" s="76"/>
       <c r="AO145" s="76"/>
     </row>
-    <row r="146" spans="1:41" ht="17.25">
+    <row r="146" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A146" s="76"/>
       <c r="B146" s="76"/>
       <c r="C146" s="76"/>
@@ -11278,7 +11115,7 @@
       <c r="AN146" s="76"/>
       <c r="AO146" s="76"/>
     </row>
-    <row r="147" spans="1:41" ht="17.25">
+    <row r="147" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A147" s="76"/>
       <c r="B147" s="76"/>
       <c r="C147" s="76"/>
@@ -11321,7 +11158,7 @@
       <c r="AN147" s="76"/>
       <c r="AO147" s="76"/>
     </row>
-    <row r="148" spans="1:41" ht="17.25">
+    <row r="148" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A148" s="76"/>
       <c r="B148" s="76"/>
       <c r="C148" s="76"/>
@@ -11364,7 +11201,7 @@
       <c r="AN148" s="76"/>
       <c r="AO148" s="76"/>
     </row>
-    <row r="149" spans="1:41" ht="17.25">
+    <row r="149" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A149" s="76"/>
       <c r="B149" s="76"/>
       <c r="C149" s="76"/>
@@ -11407,7 +11244,7 @@
       <c r="AN149" s="76"/>
       <c r="AO149" s="76"/>
     </row>
-    <row r="150" spans="1:41" ht="17.25">
+    <row r="150" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A150" s="76"/>
       <c r="B150" s="76"/>
       <c r="C150" s="76"/>
@@ -11450,7 +11287,7 @@
       <c r="AN150" s="76"/>
       <c r="AO150" s="76"/>
     </row>
-    <row r="151" spans="1:41" ht="17.25">
+    <row r="151" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A151" s="76"/>
       <c r="B151" s="76"/>
       <c r="C151" s="76"/>
@@ -11493,7 +11330,7 @@
       <c r="AN151" s="76"/>
       <c r="AO151" s="76"/>
     </row>
-    <row r="152" spans="1:41" ht="17.25">
+    <row r="152" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A152" s="76"/>
       <c r="B152" s="76"/>
       <c r="C152" s="76"/>
@@ -11536,7 +11373,7 @@
       <c r="AN152" s="76"/>
       <c r="AO152" s="76"/>
     </row>
-    <row r="153" spans="1:41" ht="17.25">
+    <row r="153" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A153" s="76"/>
       <c r="B153" s="76"/>
       <c r="C153" s="76"/>
@@ -11579,7 +11416,7 @@
       <c r="AN153" s="76"/>
       <c r="AO153" s="76"/>
     </row>
-    <row r="154" spans="1:41" ht="17.25">
+    <row r="154" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A154" s="76"/>
       <c r="B154" s="76"/>
       <c r="C154" s="76"/>
@@ -11622,7 +11459,7 @@
       <c r="AN154" s="76"/>
       <c r="AO154" s="76"/>
     </row>
-    <row r="155" spans="1:41" ht="17.25">
+    <row r="155" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A155" s="76"/>
       <c r="B155" s="76"/>
       <c r="C155" s="76"/>
@@ -11665,7 +11502,7 @@
       <c r="AN155" s="76"/>
       <c r="AO155" s="76"/>
     </row>
-    <row r="156" spans="1:41" ht="17.25">
+    <row r="156" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A156" s="76"/>
       <c r="B156" s="76"/>
       <c r="C156" s="76"/>
@@ -11708,7 +11545,7 @@
       <c r="AN156" s="76"/>
       <c r="AO156" s="76"/>
     </row>
-    <row r="157" spans="1:41" ht="17.25">
+    <row r="157" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A157" s="76"/>
       <c r="B157" s="76"/>
       <c r="C157" s="76"/>
@@ -11751,7 +11588,7 @@
       <c r="AN157" s="76"/>
       <c r="AO157" s="76"/>
     </row>
-    <row r="158" spans="1:41" ht="17.25">
+    <row r="158" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A158" s="76"/>
       <c r="B158" s="76"/>
       <c r="C158" s="76"/>
@@ -11795,91 +11632,13 @@
       <c r="AO158" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="D116:G116"/>
-    <mergeCell ref="D117:G119"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:G112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D113:G114"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D51:G52"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D53:G54"/>
-    <mergeCell ref="A103:C119"/>
-    <mergeCell ref="D103:E104"/>
-    <mergeCell ref="F103:G104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="A59:C77"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D74:G75"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="D70:G71"/>
-    <mergeCell ref="D90:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D94:G96"/>
-    <mergeCell ref="F82:G83"/>
-    <mergeCell ref="F87:G89"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="A80:C96"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D80:E81"/>
-    <mergeCell ref="F80:G81"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F43:G44"/>
-    <mergeCell ref="A38:C56"/>
+  <mergeCells count="6">
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16" r:id="rId1" location="zippy=%2Cin-this-article" xr:uid="{54119776-51EE-46CB-8292-A496E4D1FBE2}"/>
@@ -11893,11 +11652,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16610154-EAA2-4A9D-BA6A-E52B03ED4892}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B31" workbookViewId="0">
       <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" customWidth="1"/>
@@ -11907,214 +11666,214 @@
     <col min="7" max="7" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="129" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="128" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="145" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128" t="s">
+      <c r="E1" s="145"/>
+      <c r="F1" s="145" t="s">
         <v>319</v>
       </c>
-      <c r="G1" s="128"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="112" t="s">
-        <v>359</v>
-      </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112" t="s">
+      <c r="G1" s="145"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="129"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="110" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="110"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="110" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="110"/>
+      <c r="F4" s="126" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="126"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="110" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" s="110"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="129"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="110" t="s">
         <v>324</v>
       </c>
-      <c r="G3" s="112"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25">
-      <c r="A4" s="121"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="112" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="132" t="s">
+      <c r="E6" s="110"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="129"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="110" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="110"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="129"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="110" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="132"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="112" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-    </row>
-    <row r="6" spans="1:7" ht="17.25">
-      <c r="A6" s="121"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="112" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="129"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="110"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="129"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="110" t="s">
         <v>327</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.25">
-      <c r="A7" s="121"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="112" t="s">
+      <c r="E10" s="110"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+    </row>
+    <row r="11" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="129"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="111" t="s">
         <v>328</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="112" t="s">
+      <c r="E11" s="111"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="129"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="111" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="111"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="129"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="123" t="s">
         <v>329</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.25">
-      <c r="A9" s="121"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="112" t="s">
-        <v>360</v>
-      </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-    </row>
-    <row r="10" spans="1:7" ht="17.25">
-      <c r="A10" s="121"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="112" t="s">
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="126" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="129"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="124" t="s">
         <v>331</v>
       </c>
-      <c r="E10" s="112"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-    </row>
-    <row r="11" spans="1:7" ht="28.5">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="113" t="s">
-        <v>332</v>
-      </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="113" t="s">
-        <v>361</v>
-      </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.25">
-      <c r="A13" s="121"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="121"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="145" t="s">
-        <v>333</v>
-      </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="121"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="121"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="132" t="s">
-        <v>334</v>
-      </c>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="121"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.25">
-      <c r="A18" s="121"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="130" t="s">
-        <v>335</v>
-      </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25">
-      <c r="A19" s="121"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.25">
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="129"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
@@ -12123,7 +11882,7 @@
       <c r="F20" s="76"/>
       <c r="G20" s="76"/>
     </row>
-    <row r="21" spans="1:7" ht="17.25">
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
@@ -12132,12 +11891,12 @@
       <c r="F21" s="76"/>
       <c r="G21" s="76"/>
     </row>
-    <row r="22" spans="1:7" ht="21.75">
-      <c r="A22" s="121" t="s">
-        <v>336</v>
-      </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
+    <row r="22" spans="1:7" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="106" t="s">
         <v>318</v>
       </c>
@@ -12147,195 +11906,195 @@
       </c>
       <c r="G22" s="106"/>
     </row>
-    <row r="23" spans="1:7" ht="21.75">
-      <c r="A23" s="121"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
+    <row r="23" spans="1:7" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="129"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="106"/>
       <c r="E23" s="106"/>
       <c r="F23" s="106"/>
       <c r="G23" s="106"/>
     </row>
-    <row r="24" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A24" s="121"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="115" t="s">
-        <v>340</v>
-      </c>
-      <c r="E24" s="115"/>
-      <c r="F24" s="134" t="s">
+    <row r="24" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="129"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="113" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="113"/>
+      <c r="F24" s="130" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24" s="130"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="129"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="115" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" s="115"/>
+      <c r="F25" s="107" t="s">
+        <v>335</v>
+      </c>
+      <c r="G25" s="107"/>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="129"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" s="107"/>
+      <c r="F26" s="112" t="s">
+        <v>336</v>
+      </c>
+      <c r="G26" s="112"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="129"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="115" t="s">
         <v>338</v>
       </c>
-      <c r="G24" s="134"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
-      <c r="A25" s="121"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="158" t="s">
-        <v>327</v>
-      </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="107" t="s">
-        <v>341</v>
-      </c>
-      <c r="G25" s="107"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A26" s="121"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="107" t="s">
-        <v>328</v>
-      </c>
-      <c r="E26" s="107"/>
-      <c r="F26" s="114" t="s">
-        <v>342</v>
-      </c>
-      <c r="G26" s="114"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
-      <c r="A27" s="121"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="158" t="s">
-        <v>344</v>
-      </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-    </row>
-    <row r="28" spans="1:7" ht="17.25">
-      <c r="A28" s="121"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="129"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="107" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E28" s="107"/>
-      <c r="F28" s="134" t="s">
-        <v>343</v>
-      </c>
-      <c r="G28" s="134"/>
-    </row>
-    <row r="29" spans="1:7" ht="17.25">
-      <c r="A29" s="121"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
+      <c r="F28" s="130" t="s">
+        <v>337</v>
+      </c>
+      <c r="G28" s="130"/>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="129"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="107"/>
       <c r="G29" s="107"/>
     </row>
-    <row r="30" spans="1:7" ht="17.25">
-      <c r="A30" s="121"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
+    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="129"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
       <c r="F30" s="107"/>
       <c r="G30" s="107"/>
     </row>
-    <row r="31" spans="1:7" ht="17.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
+    <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="129"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
       <c r="F31" s="107"/>
       <c r="G31" s="107"/>
     </row>
-    <row r="32" spans="1:7" ht="17.25">
-      <c r="A32" s="121"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
+    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="129"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="107"/>
       <c r="E32" s="107"/>
       <c r="F32" s="107"/>
       <c r="G32" s="107"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="121"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="144" t="s">
-        <v>333</v>
-      </c>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.25">
-      <c r="A35" s="121"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="134" t="s">
-        <v>345</v>
-      </c>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-    </row>
-    <row r="36" spans="1:7" ht="17.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="134" t="s">
-        <v>346</v>
-      </c>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="121"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="135" t="s">
-        <v>347</v>
-      </c>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="121"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
-    </row>
-    <row r="39" spans="1:7" ht="17.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="140"/>
-    </row>
-    <row r="40" spans="1:7" ht="17.25">
-      <c r="A40" s="121"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-    </row>
-    <row r="41" spans="1:7" ht="17.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="129"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="133" t="s">
+        <v>329</v>
+      </c>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="129"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="129"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="130" t="s">
+        <v>339</v>
+      </c>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="129"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="130" t="s">
+        <v>340</v>
+      </c>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="129"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="132" t="s">
+        <v>341</v>
+      </c>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="129"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="129"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="129"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A41" s="76"/>
       <c r="B41" s="76"/>
       <c r="C41" s="76"/>
@@ -12344,7 +12103,7 @@
       <c r="F41" s="76"/>
       <c r="G41" s="76"/>
     </row>
-    <row r="42" spans="1:7" ht="17.25">
+    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A42" s="76"/>
       <c r="B42" s="76"/>
       <c r="C42" s="76"/>
@@ -12353,12 +12112,12 @@
       <c r="F42" s="76"/>
       <c r="G42" s="76"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="133" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="127"/>
       <c r="D43" s="138" t="s">
         <v>318</v>
       </c>
@@ -12368,175 +12127,175 @@
       </c>
       <c r="G43" s="138"/>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="133"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="127"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="138"/>
       <c r="E44" s="138"/>
       <c r="F44" s="138"/>
       <c r="G44" s="138"/>
     </row>
-    <row r="45" spans="1:7" ht="17.25">
-      <c r="A45" s="133"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="137" t="s">
-        <v>362</v>
-      </c>
-      <c r="E45" s="137"/>
-      <c r="F45" s="141" t="s">
-        <v>349</v>
-      </c>
-      <c r="G45" s="141"/>
-    </row>
-    <row r="46" spans="1:7" ht="17.25">
-      <c r="A46" s="133"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="137" t="s">
-        <v>363</v>
-      </c>
-      <c r="E46" s="137"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141"/>
-    </row>
-    <row r="47" spans="1:7" ht="17.25">
-      <c r="A47" s="133"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="137" t="s">
-        <v>364</v>
-      </c>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137" t="s">
-        <v>365</v>
-      </c>
-      <c r="G47" s="137"/>
-    </row>
-    <row r="48" spans="1:7" ht="17.25">
-      <c r="A48" s="133"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="137" t="s">
+    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="127"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="135" t="s">
+        <v>351</v>
+      </c>
+      <c r="E45" s="135"/>
+      <c r="F45" s="136" t="s">
+        <v>342</v>
+      </c>
+      <c r="G45" s="136"/>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="127"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="135" t="s">
+        <v>352</v>
+      </c>
+      <c r="E46" s="135"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+    </row>
+    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="127"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="135" t="s">
         <v>353</v>
       </c>
-      <c r="G48" s="137"/>
-    </row>
-    <row r="49" spans="1:7" ht="17.25">
-      <c r="A49" s="133"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="137" t="s">
+      <c r="E47" s="135"/>
+      <c r="F47" s="135" t="s">
         <v>354</v>
       </c>
-      <c r="G49" s="137"/>
-    </row>
-    <row r="50" spans="1:7" ht="17.25">
-      <c r="A50" s="133"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="141" t="s">
-        <v>355</v>
-      </c>
-      <c r="G50" s="141"/>
-    </row>
-    <row r="51" spans="1:7" ht="17.25">
-      <c r="A51" s="133"/>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="141"/>
-    </row>
-    <row r="52" spans="1:7" ht="17.25">
-      <c r="A52" s="133"/>
-      <c r="B52" s="133"/>
-      <c r="C52" s="133"/>
+      <c r="G47" s="135"/>
+    </row>
+    <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="127"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="135" t="s">
+        <v>343</v>
+      </c>
+      <c r="G48" s="135"/>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="127"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="135" t="s">
+        <v>344</v>
+      </c>
+      <c r="G49" s="135"/>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="127"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="136" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" s="136"/>
+    </row>
+    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="127"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+    </row>
+    <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="127"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="127"/>
       <c r="D52" s="108"/>
       <c r="E52" s="108"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="141"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="133"/>
-      <c r="B53" s="133"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="139" t="s">
-        <v>333</v>
-      </c>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="133"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="139"/>
-    </row>
-    <row r="55" spans="1:7" ht="17.25">
-      <c r="A55" s="133"/>
-      <c r="B55" s="133"/>
-      <c r="C55" s="133"/>
-      <c r="D55" s="137" t="s">
-        <v>356</v>
-      </c>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="137"/>
-    </row>
-    <row r="56" spans="1:7" ht="17.25">
-      <c r="A56" s="133"/>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="137" t="s">
-        <v>366</v>
-      </c>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="133"/>
-      <c r="B57" s="133"/>
-      <c r="C57" s="133"/>
-      <c r="D57" s="141" t="s">
-        <v>358</v>
-      </c>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="133"/>
-      <c r="B58" s="133"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="141"/>
-      <c r="G58" s="141"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="133"/>
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-    </row>
-    <row r="60" spans="1:7" ht="17.25">
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="127"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="134" t="s">
+        <v>329</v>
+      </c>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="127"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+    </row>
+    <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="127"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="135" t="s">
+        <v>346</v>
+      </c>
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="135"/>
+    </row>
+    <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="127"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="135" t="s">
+        <v>355</v>
+      </c>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="135"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="127"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="136" t="s">
+        <v>347</v>
+      </c>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="127"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="136"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="127"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+    </row>
+    <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A60" s="76"/>
       <c r="B60" s="76"/>
       <c r="C60" s="76"/>
@@ -12545,7 +12304,7 @@
       <c r="F60" s="76"/>
       <c r="G60" s="76"/>
     </row>
-    <row r="61" spans="1:7" ht="17.25">
+    <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A61" s="76"/>
       <c r="B61" s="76"/>
       <c r="C61" s="76"/>
@@ -12554,7 +12313,7 @@
       <c r="F61" s="76"/>
       <c r="G61" s="76"/>
     </row>
-    <row r="62" spans="1:7" ht="17.25">
+    <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A62" s="76"/>
       <c r="B62" s="76"/>
       <c r="C62" s="76"/>
@@ -12563,7 +12322,7 @@
       <c r="F62" s="76"/>
       <c r="G62" s="76"/>
     </row>
-    <row r="63" spans="1:7" ht="17.25">
+    <row r="63" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A63" s="76"/>
       <c r="B63" s="76"/>
       <c r="C63" s="76"/>
@@ -12572,7 +12331,7 @@
       <c r="F63" s="76"/>
       <c r="G63" s="76"/>
     </row>
-    <row r="64" spans="1:7" ht="17.25">
+    <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A64" s="76"/>
       <c r="B64" s="76"/>
       <c r="C64" s="76"/>
@@ -12581,7 +12340,7 @@
       <c r="F64" s="76"/>
       <c r="G64" s="76"/>
     </row>
-    <row r="65" spans="1:7" ht="17.25">
+    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A65" s="76"/>
       <c r="B65" s="76"/>
       <c r="C65" s="76"/>
@@ -12590,186 +12349,186 @@
       <c r="F65" s="76"/>
       <c r="G65" s="76"/>
     </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1">
-      <c r="A66" s="133" t="s">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="133"/>
-      <c r="C66" s="133"/>
-      <c r="D66" s="146" t="s">
+      <c r="B66" s="127"/>
+      <c r="C66" s="127"/>
+      <c r="D66" s="128" t="s">
         <v>318</v>
       </c>
-      <c r="E66" s="146"/>
-      <c r="F66" s="146" t="s">
+      <c r="E66" s="128"/>
+      <c r="F66" s="128" t="s">
         <v>319</v>
       </c>
-      <c r="G66" s="146"/>
-    </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1">
-      <c r="A67" s="133"/>
-      <c r="B67" s="133"/>
-      <c r="C67" s="133"/>
-      <c r="D67" s="146"/>
-      <c r="E67" s="146"/>
-      <c r="F67" s="146"/>
-      <c r="G67" s="146"/>
-    </row>
-    <row r="68" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A68" s="133"/>
-      <c r="B68" s="133"/>
-      <c r="C68" s="133"/>
-      <c r="D68" s="147" t="s">
+      <c r="G66" s="128"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="127"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="127"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+    </row>
+    <row r="68" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="127"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="127"/>
+      <c r="D68" s="119" t="s">
+        <v>350</v>
+      </c>
+      <c r="E68" s="119"/>
+      <c r="F68" s="120" t="s">
+        <v>356</v>
+      </c>
+      <c r="G68" s="120"/>
+    </row>
+    <row r="69" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="127"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="127"/>
+      <c r="D69" s="119" t="s">
+        <v>357</v>
+      </c>
+      <c r="E69" s="119"/>
+      <c r="F69" s="120"/>
+      <c r="G69" s="120"/>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="127"/>
+      <c r="B70" s="127"/>
+      <c r="C70" s="127"/>
+      <c r="D70" s="119" t="s">
+        <v>358</v>
+      </c>
+      <c r="E70" s="119"/>
+      <c r="F70" s="119" t="s">
+        <v>359</v>
+      </c>
+      <c r="G70" s="119"/>
+    </row>
+    <row r="71" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="127"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="127"/>
+      <c r="D71" s="119" t="s">
+        <v>360</v>
+      </c>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
+      <c r="G71" s="119"/>
+    </row>
+    <row r="72" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="127"/>
+      <c r="B72" s="127"/>
+      <c r="C72" s="127"/>
+      <c r="D72" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="E68" s="147"/>
-      <c r="F68" s="148" t="s">
-        <v>367</v>
-      </c>
-      <c r="G68" s="148"/>
-    </row>
-    <row r="69" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A69" s="133"/>
-      <c r="B69" s="133"/>
-      <c r="C69" s="133"/>
-      <c r="D69" s="147" t="s">
-        <v>368</v>
-      </c>
-      <c r="E69" s="147"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="148"/>
-    </row>
-    <row r="70" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A70" s="133"/>
-      <c r="B70" s="133"/>
-      <c r="C70" s="133"/>
-      <c r="D70" s="147" t="s">
-        <v>369</v>
-      </c>
-      <c r="E70" s="147"/>
-      <c r="F70" s="147" t="s">
-        <v>370</v>
-      </c>
-      <c r="G70" s="147"/>
-    </row>
-    <row r="71" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A71" s="133"/>
-      <c r="B71" s="133"/>
-      <c r="C71" s="133"/>
-      <c r="D71" s="147" t="s">
-        <v>371</v>
-      </c>
-      <c r="E71" s="147"/>
-      <c r="F71" s="147"/>
-      <c r="G71" s="147"/>
-    </row>
-    <row r="72" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A72" s="133"/>
-      <c r="B72" s="133"/>
-      <c r="C72" s="133"/>
-      <c r="D72" s="147" t="s">
-        <v>372</v>
-      </c>
-      <c r="E72" s="147"/>
-      <c r="F72" s="147"/>
-      <c r="G72" s="147"/>
-    </row>
-    <row r="73" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A73" s="133"/>
-      <c r="B73" s="133"/>
-      <c r="C73" s="133"/>
-      <c r="D73" s="149"/>
-      <c r="E73" s="149"/>
-      <c r="F73" s="148"/>
-      <c r="G73" s="148"/>
-    </row>
-    <row r="74" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A74" s="133"/>
-      <c r="B74" s="133"/>
-      <c r="C74" s="133"/>
-      <c r="D74" s="149"/>
-      <c r="E74" s="149"/>
-      <c r="F74" s="148"/>
-      <c r="G74" s="148"/>
-    </row>
-    <row r="75" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A75" s="133"/>
-      <c r="B75" s="133"/>
-      <c r="C75" s="133"/>
-      <c r="D75" s="111"/>
-      <c r="E75" s="111"/>
-      <c r="F75" s="148"/>
-      <c r="G75" s="148"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1">
-      <c r="A76" s="133"/>
-      <c r="B76" s="133"/>
-      <c r="C76" s="133"/>
-      <c r="D76" s="150" t="s">
-        <v>333</v>
-      </c>
-      <c r="E76" s="150"/>
-      <c r="F76" s="150"/>
-      <c r="G76" s="150"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1">
-      <c r="A77" s="133"/>
-      <c r="B77" s="133"/>
-      <c r="C77" s="133"/>
-      <c r="D77" s="150"/>
-      <c r="E77" s="150"/>
-      <c r="F77" s="150"/>
-      <c r="G77" s="150"/>
-    </row>
-    <row r="78" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A78" s="133"/>
-      <c r="B78" s="133"/>
-      <c r="C78" s="133"/>
-      <c r="D78" s="147" t="s">
-        <v>373</v>
-      </c>
-      <c r="E78" s="147"/>
-      <c r="F78" s="147"/>
-      <c r="G78" s="147"/>
-    </row>
-    <row r="79" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A79" s="133"/>
-      <c r="B79" s="133"/>
-      <c r="C79" s="133"/>
-      <c r="D79" s="147" t="s">
-        <v>366</v>
-      </c>
-      <c r="E79" s="147"/>
-      <c r="F79" s="147"/>
-      <c r="G79" s="147"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1">
-      <c r="A80" s="133"/>
-      <c r="B80" s="133"/>
-      <c r="C80" s="133"/>
-      <c r="D80" s="148"/>
-      <c r="E80" s="148"/>
-      <c r="F80" s="148"/>
-      <c r="G80" s="148"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1">
-      <c r="A81" s="133"/>
-      <c r="B81" s="133"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="148"/>
-      <c r="E81" s="148"/>
-      <c r="F81" s="148"/>
-      <c r="G81" s="148"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1">
-      <c r="A82" s="133"/>
-      <c r="B82" s="133"/>
-      <c r="C82" s="133"/>
-      <c r="D82" s="148"/>
-      <c r="E82" s="148"/>
-      <c r="F82" s="148"/>
-      <c r="G82" s="148"/>
-    </row>
-    <row r="83" spans="1:7" ht="17.25">
+      <c r="E72" s="119"/>
+      <c r="F72" s="119"/>
+      <c r="G72" s="119"/>
+    </row>
+    <row r="73" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="127"/>
+      <c r="B73" s="127"/>
+      <c r="C73" s="127"/>
+      <c r="D73" s="121"/>
+      <c r="E73" s="121"/>
+      <c r="F73" s="120"/>
+      <c r="G73" s="120"/>
+    </row>
+    <row r="74" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="127"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="127"/>
+      <c r="D74" s="121"/>
+      <c r="E74" s="121"/>
+      <c r="F74" s="120"/>
+      <c r="G74" s="120"/>
+    </row>
+    <row r="75" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="127"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="127"/>
+      <c r="D75" s="109"/>
+      <c r="E75" s="109"/>
+      <c r="F75" s="120"/>
+      <c r="G75" s="120"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="127"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="127"/>
+      <c r="D76" s="122" t="s">
+        <v>329</v>
+      </c>
+      <c r="E76" s="122"/>
+      <c r="F76" s="122"/>
+      <c r="G76" s="122"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="127"/>
+      <c r="B77" s="127"/>
+      <c r="C77" s="127"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="122"/>
+      <c r="F77" s="122"/>
+      <c r="G77" s="122"/>
+    </row>
+    <row r="78" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="127"/>
+      <c r="B78" s="127"/>
+      <c r="C78" s="127"/>
+      <c r="D78" s="119" t="s">
+        <v>362</v>
+      </c>
+      <c r="E78" s="119"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="119"/>
+    </row>
+    <row r="79" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="127"/>
+      <c r="B79" s="127"/>
+      <c r="C79" s="127"/>
+      <c r="D79" s="119" t="s">
+        <v>355</v>
+      </c>
+      <c r="E79" s="119"/>
+      <c r="F79" s="119"/>
+      <c r="G79" s="119"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="127"/>
+      <c r="B80" s="127"/>
+      <c r="C80" s="127"/>
+      <c r="D80" s="120"/>
+      <c r="E80" s="120"/>
+      <c r="F80" s="120"/>
+      <c r="G80" s="120"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="127"/>
+      <c r="B81" s="127"/>
+      <c r="C81" s="127"/>
+      <c r="D81" s="120"/>
+      <c r="E81" s="120"/>
+      <c r="F81" s="120"/>
+      <c r="G81" s="120"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="127"/>
+      <c r="B82" s="127"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="120"/>
+      <c r="E82" s="120"/>
+      <c r="F82" s="120"/>
+      <c r="G82" s="120"/>
+    </row>
+    <row r="83" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A83" s="76"/>
       <c r="B83" s="76"/>
       <c r="C83" s="76"/>
@@ -12778,7 +12537,7 @@
       <c r="F83" s="76"/>
       <c r="G83" s="76"/>
     </row>
-    <row r="84" spans="1:7" ht="17.25">
+    <row r="84" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A84" s="76"/>
       <c r="B84" s="76"/>
       <c r="C84" s="76"/>
@@ -12787,7 +12546,7 @@
       <c r="F84" s="76"/>
       <c r="G84" s="76"/>
     </row>
-    <row r="85" spans="1:7" ht="17.25">
+    <row r="85" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A85" s="76"/>
       <c r="B85" s="76"/>
       <c r="C85" s="76"/>
@@ -12796,7 +12555,7 @@
       <c r="F85" s="76"/>
       <c r="G85" s="76"/>
     </row>
-    <row r="86" spans="1:7" ht="17.25">
+    <row r="86" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A86" s="76"/>
       <c r="B86" s="76"/>
       <c r="C86" s="76"/>
@@ -12805,7 +12564,7 @@
       <c r="F86" s="76"/>
       <c r="G86" s="76"/>
     </row>
-    <row r="87" spans="1:7" ht="17.25">
+    <row r="87" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A87" s="76"/>
       <c r="B87" s="76"/>
       <c r="C87" s="76"/>
@@ -12814,7 +12573,7 @@
       <c r="F87" s="76"/>
       <c r="G87" s="76"/>
     </row>
-    <row r="88" spans="1:7" ht="17.25">
+    <row r="88" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A88" s="76"/>
       <c r="B88" s="76"/>
       <c r="C88" s="76"/>
@@ -12823,231 +12582,223 @@
       <c r="F88" s="76"/>
       <c r="G88" s="76"/>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="133" t="s">
-        <v>374</v>
-      </c>
-      <c r="B89" s="133"/>
-      <c r="C89" s="133"/>
-      <c r="D89" s="151" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="127" t="s">
+        <v>363</v>
+      </c>
+      <c r="B89" s="127"/>
+      <c r="C89" s="127"/>
+      <c r="D89" s="150" t="s">
         <v>318</v>
       </c>
-      <c r="E89" s="151"/>
-      <c r="F89" s="151" t="s">
+      <c r="E89" s="150"/>
+      <c r="F89" s="150" t="s">
         <v>319</v>
       </c>
-      <c r="G89" s="151"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="133"/>
-      <c r="B90" s="133"/>
-      <c r="C90" s="133"/>
-      <c r="D90" s="151"/>
-      <c r="E90" s="151"/>
-      <c r="F90" s="151"/>
-      <c r="G90" s="151"/>
-    </row>
-    <row r="91" spans="1:7" ht="17.25">
-      <c r="A91" s="133"/>
-      <c r="B91" s="133"/>
-      <c r="C91" s="133"/>
-      <c r="D91" s="152" t="s">
-        <v>375</v>
-      </c>
-      <c r="E91" s="152"/>
-      <c r="F91" s="153" t="s">
-        <v>376</v>
-      </c>
-      <c r="G91" s="153"/>
-    </row>
-    <row r="92" spans="1:7" ht="17.25">
-      <c r="A92" s="133"/>
-      <c r="B92" s="133"/>
-      <c r="C92" s="133"/>
-      <c r="D92" s="152" t="s">
-        <v>377</v>
-      </c>
-      <c r="E92" s="152"/>
-      <c r="F92" s="153"/>
-      <c r="G92" s="153"/>
-    </row>
-    <row r="93" spans="1:7" ht="17.25">
-      <c r="A93" s="133"/>
-      <c r="B93" s="133"/>
-      <c r="C93" s="133"/>
-      <c r="D93" s="152"/>
-      <c r="E93" s="152"/>
-      <c r="F93" s="152" t="s">
-        <v>378</v>
-      </c>
-      <c r="G93" s="152"/>
-    </row>
-    <row r="94" spans="1:7" ht="17.25">
-      <c r="A94" s="133"/>
-      <c r="B94" s="133"/>
-      <c r="C94" s="133"/>
-      <c r="D94" s="154"/>
-      <c r="E94" s="154"/>
-      <c r="F94" s="152" t="s">
-        <v>379</v>
-      </c>
-      <c r="G94" s="152"/>
-    </row>
-    <row r="95" spans="1:7" ht="17.25">
-      <c r="A95" s="133"/>
-      <c r="B95" s="133"/>
-      <c r="C95" s="133"/>
-      <c r="D95" s="154"/>
-      <c r="E95" s="154"/>
-      <c r="F95" s="152" t="s">
-        <v>380</v>
-      </c>
-      <c r="G95" s="152"/>
-    </row>
-    <row r="96" spans="1:7" ht="17.25">
-      <c r="A96" s="133"/>
-      <c r="B96" s="133"/>
-      <c r="C96" s="133"/>
-      <c r="D96" s="154"/>
-      <c r="E96" s="154"/>
-      <c r="F96" s="153" t="s">
-        <v>381</v>
-      </c>
-      <c r="G96" s="153"/>
-    </row>
-    <row r="97" spans="1:7" ht="17.25">
-      <c r="A97" s="133"/>
-      <c r="B97" s="133"/>
-      <c r="C97" s="133"/>
-      <c r="D97" s="154"/>
-      <c r="E97" s="154"/>
-      <c r="F97" s="153" t="s">
-        <v>382</v>
-      </c>
-      <c r="G97" s="153"/>
-    </row>
-    <row r="98" spans="1:7" ht="17.25">
-      <c r="A98" s="133"/>
-      <c r="B98" s="133"/>
-      <c r="C98" s="133"/>
-      <c r="D98" s="155"/>
-      <c r="E98" s="155"/>
-      <c r="F98" s="153" t="s">
-        <v>383</v>
-      </c>
-      <c r="G98" s="153"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="133"/>
-      <c r="B99" s="133"/>
-      <c r="C99" s="133"/>
-      <c r="D99" s="156" t="s">
-        <v>333</v>
-      </c>
-      <c r="E99" s="156"/>
-      <c r="F99" s="156"/>
-      <c r="G99" s="156"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="133"/>
-      <c r="B100" s="133"/>
-      <c r="C100" s="133"/>
-      <c r="D100" s="156"/>
-      <c r="E100" s="156"/>
-      <c r="F100" s="156"/>
-      <c r="G100" s="156"/>
-    </row>
-    <row r="101" spans="1:7" ht="17.25">
-      <c r="A101" s="133"/>
-      <c r="B101" s="133"/>
-      <c r="C101" s="133"/>
-      <c r="D101" s="152" t="s">
-        <v>384</v>
-      </c>
-      <c r="E101" s="152"/>
-      <c r="F101" s="152"/>
-      <c r="G101" s="152"/>
-    </row>
-    <row r="102" spans="1:7" ht="17.25">
-      <c r="A102" s="133"/>
-      <c r="B102" s="133"/>
-      <c r="C102" s="133"/>
-      <c r="D102" s="152"/>
-      <c r="E102" s="152"/>
-      <c r="F102" s="152"/>
-      <c r="G102" s="152"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="133"/>
-      <c r="B103" s="133"/>
-      <c r="C103" s="133"/>
-      <c r="D103" s="153"/>
-      <c r="E103" s="153"/>
-      <c r="F103" s="153"/>
-      <c r="G103" s="153"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="133"/>
-      <c r="B104" s="133"/>
-      <c r="C104" s="133"/>
-      <c r="D104" s="153"/>
-      <c r="E104" s="153"/>
-      <c r="F104" s="153"/>
-      <c r="G104" s="153"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="133"/>
-      <c r="B105" s="133"/>
-      <c r="C105" s="133"/>
-      <c r="D105" s="153"/>
-      <c r="E105" s="153"/>
-      <c r="F105" s="153"/>
-      <c r="G105" s="153"/>
+      <c r="G89" s="150"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="127"/>
+      <c r="B90" s="127"/>
+      <c r="C90" s="127"/>
+      <c r="D90" s="150"/>
+      <c r="E90" s="150"/>
+      <c r="F90" s="150"/>
+      <c r="G90" s="150"/>
+    </row>
+    <row r="91" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="127"/>
+      <c r="B91" s="127"/>
+      <c r="C91" s="127"/>
+      <c r="D91" s="147" t="s">
+        <v>364</v>
+      </c>
+      <c r="E91" s="147"/>
+      <c r="F91" s="148" t="s">
+        <v>365</v>
+      </c>
+      <c r="G91" s="148"/>
+    </row>
+    <row r="92" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="127"/>
+      <c r="B92" s="127"/>
+      <c r="C92" s="127"/>
+      <c r="D92" s="147" t="s">
+        <v>366</v>
+      </c>
+      <c r="E92" s="147"/>
+      <c r="F92" s="148"/>
+      <c r="G92" s="148"/>
+    </row>
+    <row r="93" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="127"/>
+      <c r="B93" s="127"/>
+      <c r="C93" s="127"/>
+      <c r="D93" s="147"/>
+      <c r="E93" s="147"/>
+      <c r="F93" s="147" t="s">
+        <v>367</v>
+      </c>
+      <c r="G93" s="147"/>
+    </row>
+    <row r="94" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="127"/>
+      <c r="B94" s="127"/>
+      <c r="C94" s="127"/>
+      <c r="D94" s="149"/>
+      <c r="E94" s="149"/>
+      <c r="F94" s="147" t="s">
+        <v>368</v>
+      </c>
+      <c r="G94" s="147"/>
+    </row>
+    <row r="95" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="127"/>
+      <c r="B95" s="127"/>
+      <c r="C95" s="127"/>
+      <c r="D95" s="149"/>
+      <c r="E95" s="149"/>
+      <c r="F95" s="147" t="s">
+        <v>369</v>
+      </c>
+      <c r="G95" s="147"/>
+    </row>
+    <row r="96" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="127"/>
+      <c r="B96" s="127"/>
+      <c r="C96" s="127"/>
+      <c r="D96" s="149"/>
+      <c r="E96" s="149"/>
+      <c r="F96" s="148" t="s">
+        <v>370</v>
+      </c>
+      <c r="G96" s="148"/>
+    </row>
+    <row r="97" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="127"/>
+      <c r="B97" s="127"/>
+      <c r="C97" s="127"/>
+      <c r="D97" s="149"/>
+      <c r="E97" s="149"/>
+      <c r="F97" s="148" t="s">
+        <v>371</v>
+      </c>
+      <c r="G97" s="148"/>
+    </row>
+    <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="127"/>
+      <c r="B98" s="127"/>
+      <c r="C98" s="127"/>
+      <c r="D98" s="114"/>
+      <c r="E98" s="114"/>
+      <c r="F98" s="148" t="s">
+        <v>372</v>
+      </c>
+      <c r="G98" s="148"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="127"/>
+      <c r="B99" s="127"/>
+      <c r="C99" s="127"/>
+      <c r="D99" s="146" t="s">
+        <v>329</v>
+      </c>
+      <c r="E99" s="146"/>
+      <c r="F99" s="146"/>
+      <c r="G99" s="146"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="127"/>
+      <c r="B100" s="127"/>
+      <c r="C100" s="127"/>
+      <c r="D100" s="146"/>
+      <c r="E100" s="146"/>
+      <c r="F100" s="146"/>
+      <c r="G100" s="146"/>
+    </row>
+    <row r="101" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="127"/>
+      <c r="B101" s="127"/>
+      <c r="C101" s="127"/>
+      <c r="D101" s="147" t="s">
+        <v>373</v>
+      </c>
+      <c r="E101" s="147"/>
+      <c r="F101" s="147"/>
+      <c r="G101" s="147"/>
+    </row>
+    <row r="102" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="127"/>
+      <c r="B102" s="127"/>
+      <c r="C102" s="127"/>
+      <c r="D102" s="147"/>
+      <c r="E102" s="147"/>
+      <c r="F102" s="147"/>
+      <c r="G102" s="147"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="127"/>
+      <c r="B103" s="127"/>
+      <c r="C103" s="127"/>
+      <c r="D103" s="148"/>
+      <c r="E103" s="148"/>
+      <c r="F103" s="148"/>
+      <c r="G103" s="148"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="127"/>
+      <c r="B104" s="127"/>
+      <c r="C104" s="127"/>
+      <c r="D104" s="148"/>
+      <c r="E104" s="148"/>
+      <c r="F104" s="148"/>
+      <c r="G104" s="148"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="127"/>
+      <c r="B105" s="127"/>
+      <c r="C105" s="127"/>
+      <c r="D105" s="148"/>
+      <c r="E105" s="148"/>
+      <c r="F105" s="148"/>
+      <c r="G105" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A66:C82"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F66:G67"/>
-    <mergeCell ref="D66:E67"/>
-    <mergeCell ref="D99:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G105"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D80:G82"/>
-    <mergeCell ref="A89:C105"/>
-    <mergeCell ref="D89:E90"/>
-    <mergeCell ref="F89:G90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G75"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D76:G77"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="A1:C19"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:G15"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D16:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G38"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="A43:C59"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A22:C40"/>
     <mergeCell ref="D53:G54"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="D56:G56"/>
@@ -13058,55 +12809,54 @@
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="F50:G52"/>
     <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="A43:C59"/>
-    <mergeCell ref="D43:E44"/>
-    <mergeCell ref="F43:G44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D16:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A22:C40"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:G15"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A1:C19"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="F1:G2"/>
-    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="A89:C105"/>
+    <mergeCell ref="D89:E90"/>
+    <mergeCell ref="F89:G90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D99:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D103:G105"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="A66:C82"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F66:G67"/>
+    <mergeCell ref="D66:E67"/>
+    <mergeCell ref="D80:G82"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G75"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D76:G77"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D70:E70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001E5292EC3412064699D7945EDAFEC7BA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2fe9119fb911c8120b37a4060b4acd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c33d3449-cfd2-44b1-9195-2522f14effba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64fb9ac2463266d0ffc8dcc493bdb843" ns2:_="">
     <xsd:import namespace="c33d3449-cfd2-44b1-9195-2522f14effba"/>
@@ -13270,6 +13020,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13277,13 +13036,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE3D84E8-9CC7-4F30-87AB-1704BF01C83E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEDCBB32-29F2-4E19-8B46-6FECBD82C570}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c33d3449-cfd2-44b1-9195-2522f14effba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEDCBB32-29F2-4E19-8B46-6FECBD82C570}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE3D84E8-9CC7-4F30-87AB-1704BF01C83E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A44F0D-0133-4A8A-B2BF-F7CF1854B017}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A44F0D-0133-4A8A-B2BF-F7CF1854B017}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>